--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_005.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_005.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.29128355453849</v>
+        <v>33.20861127805412</v>
       </c>
       <c r="D2" t="n">
-        <v>47.32633018671658</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.69728964635975</v>
+        <v>19.13393688437997</v>
       </c>
       <c r="F2" t="n">
-        <v>11.34556126746252</v>
+        <v>26.3137892342525</v>
       </c>
       <c r="G2" t="n">
-        <v>17.46859296674862</v>
+        <v>120.5349168766573</v>
       </c>
       <c r="H2" t="n">
-        <v>22.45487706383366</v>
+        <v>7.945371735564986</v>
       </c>
       <c r="I2" t="n">
-        <v>4.774282404128893</v>
+        <v>181.6313563076333</v>
       </c>
       <c r="J2" t="n">
-        <v>84.69838043647081</v>
+        <v>16.82423162515212</v>
       </c>
       <c r="K2" t="n">
-        <v>5.221352696974682</v>
+        <v>8.752620407865832</v>
       </c>
       <c r="L2" t="n">
-        <v>57.23927248404681</v>
+        <v>16.23866038424742</v>
       </c>
       <c r="M2" t="n">
-        <v>93.67378748992519</v>
+        <v>34.85977285428546</v>
       </c>
       <c r="N2" t="n">
-        <v>283.549312032958</v>
+        <v>74.74438694576583</v>
       </c>
       <c r="O2" t="n">
-        <v>63.82998035332233</v>
+        <v>143.1510526647797</v>
       </c>
       <c r="P2" t="n">
-        <v>57.20052057285492</v>
+        <v>140.5426414330195</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.67165428026488</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>58.68205684128275</v>
+        <v>71.0121615800807</v>
       </c>
       <c r="S2" t="n">
-        <v>41.43832072646799</v>
+        <v>44.16234598668809</v>
       </c>
       <c r="T2" t="n">
-        <v>43.97025917912669</v>
+        <v>49.78190221019432</v>
       </c>
       <c r="U2" t="n">
-        <v>44.44559507579242</v>
+        <v>36.52409086218083</v>
       </c>
       <c r="V2" t="n">
-        <v>41.04973685919501</v>
+        <v>32.21327473893247</v>
       </c>
       <c r="W2" t="n">
-        <v>42.59941378275188</v>
+        <v>97.48691488816146</v>
       </c>
       <c r="X2" t="n">
-        <v>85.54168480519749</v>
+        <v>73.17171606715034</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.38254675751966</v>
+        <v>76.07693692673895</v>
       </c>
       <c r="Z2" t="n">
-        <v>99.85697835717104</v>
+        <v>109.0861660986673</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.48916318216182</v>
+        <v>76.33938820850025</v>
       </c>
       <c r="AB2" t="n">
-        <v>26.41857446239515</v>
+        <v>54.64219743741366</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4514909485272</v>
+        <v>127.0201645815222</v>
       </c>
       <c r="AD2" t="n">
-        <v>154.691804227657</v>
+        <v>116.4403734689223</v>
       </c>
       <c r="AE2" t="n">
-        <v>161.6822167817024</v>
+        <v>150.888594463484</v>
       </c>
       <c r="AF2" t="n">
-        <v>177.1317850863682</v>
+        <v>163.9293952831025</v>
       </c>
       <c r="AG2" t="n">
-        <v>77.56329897512978</v>
+        <v>119.2851730131302</v>
       </c>
       <c r="AH2" t="n">
-        <v>80.04078582459117</v>
+        <v>139.9811930783908</v>
       </c>
       <c r="AI2" t="n">
-        <v>25.55419218653829</v>
+        <v>125.0007668146804</v>
       </c>
       <c r="AJ2" t="n">
-        <v>87.5792117684819</v>
+        <v>53.65196784211813</v>
       </c>
       <c r="AK2" t="n">
-        <v>55.82397491675992</v>
+        <v>84.89593114559665</v>
       </c>
       <c r="AL2" t="n">
-        <v>84.29318063576684</v>
+        <v>132.1258618411329</v>
       </c>
       <c r="AM2" t="n">
-        <v>16.20795943972929</v>
+        <v>48.0809119370149</v>
       </c>
       <c r="AN2" t="n">
-        <v>26.93276124647591</v>
+        <v>46.3693537216368</v>
       </c>
       <c r="AO2" t="n">
-        <v>35.59520472670509</v>
+        <v>56.46961405417583</v>
       </c>
       <c r="AP2" t="n">
-        <v>20.80234253635463</v>
+        <v>24.71088878214998</v>
       </c>
       <c r="AQ2" t="n">
-        <v>40.85051449956757</v>
+        <v>13.6280230025785</v>
       </c>
       <c r="AR2" t="n">
-        <v>37.89218585519024</v>
+        <v>20.03248776740602</v>
       </c>
       <c r="AS2" t="n">
-        <v>16.16031906377423</v>
+        <v>22.46928914894039</v>
       </c>
       <c r="AT2" t="n">
-        <v>29.66314460968227</v>
+        <v>25.6061847570331</v>
       </c>
       <c r="AU2" t="n">
-        <v>24.58929091012638</v>
+        <v>22.11499488488204</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.23764346429663</v>
+        <v>17.88760967080625</v>
       </c>
       <c r="AW2" t="n">
-        <v>21.333355701592</v>
+        <v>25.30221023513619</v>
       </c>
       <c r="AX2" t="n">
-        <v>24.48097145181256</v>
+        <v>23.53848084876589</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.131528968155992</v>
+        <v>4.778770579241622</v>
       </c>
       <c r="D3" t="n">
-        <v>3.513356391441755</v>
+        <v>1.932509135389429</v>
       </c>
       <c r="E3" t="n">
-        <v>2.445287956601259</v>
+        <v>1.096008416962162</v>
       </c>
       <c r="F3" t="n">
-        <v>1.89390248804431</v>
+        <v>2.671990873351463</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.850854144789956</v>
+        <v>0.7364146656898376</v>
       </c>
       <c r="I3" t="n">
-        <v>4.205303106218797</v>
+        <v>3.100458381698378</v>
       </c>
       <c r="J3" t="n">
-        <v>2.59837498977949</v>
+        <v>10.91710112351894</v>
       </c>
       <c r="K3" t="n">
-        <v>1.274755252382207</v>
+        <v>6.016974200394267</v>
       </c>
       <c r="L3" t="n">
-        <v>3.135888372714705</v>
+        <v>3.885946771491268</v>
       </c>
       <c r="M3" t="n">
-        <v>1.471544607589011</v>
+        <v>7.23151612613341</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9268618170290912</v>
+        <v>4.803887786545882</v>
       </c>
       <c r="O3" t="n">
-        <v>5.890016689986766</v>
+        <v>3.826723157850092</v>
       </c>
       <c r="P3" t="n">
-        <v>2.962971091953464</v>
+        <v>6.821338496807152</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7063828751068375</v>
+        <v>2.675187504890228</v>
       </c>
       <c r="R3" t="n">
-        <v>4.597014953363387</v>
+        <v>1.722389128322549</v>
       </c>
       <c r="S3" t="n">
-        <v>3.489915801458454</v>
+        <v>0.7229217009332134</v>
       </c>
       <c r="T3" t="n">
-        <v>2.165913641588493</v>
+        <v>10.32606469020968</v>
       </c>
       <c r="U3" t="n">
-        <v>5.419156660258839</v>
+        <v>4.883758775023927</v>
       </c>
       <c r="V3" t="n">
-        <v>2.54353787452763</v>
+        <v>5.013176573333222</v>
       </c>
       <c r="W3" t="n">
-        <v>4.493137400783768</v>
+        <v>2.612754704121725</v>
       </c>
       <c r="X3" t="n">
-        <v>4.54857321482821</v>
+        <v>4.843258767832198</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.474029981691898</v>
+        <v>2.515025714163095</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.816729400414131</v>
+        <v>4.210843665296252</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.122323193016781</v>
+        <v>4.153678143538707</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.513009533060765</v>
+        <v>5.434419540273291</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.041443623180112</v>
+        <v>7.759220677391566</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.854091860865082</v>
+        <v>3.101761534420877</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.919339391290676</v>
+        <v>8.66698692634108</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6950193537304328</v>
+        <v>4.74881676923244</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.754056255629199</v>
+        <v>5.357853517643529</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.682689997212264</v>
+        <v>5.808608720139138</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.544939054142652</v>
+        <v>12.32213243573621</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.614623330809328</v>
+        <v>6.979132254858104</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.172565139892046</v>
+        <v>6.297812528561161</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.801041759078461</v>
+        <v>4.785759129198639</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.99620110019678</v>
+        <v>2.866285533017219</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5657747068983</v>
+        <v>3.049673623198633</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.880049331608192</v>
+        <v>3.179168992190598</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.872255498326689</v>
+        <v>2.483543143748586</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.306554340717965</v>
+        <v>0.6960125170927611</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.539350528551842</v>
+        <v>3.734766862754067</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.562906466523085</v>
+        <v>3.816497120346087</v>
       </c>
       <c r="AT3" t="n">
-        <v>5.502078087205274</v>
+        <v>2.419955686486512</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.998431916488258</v>
+        <v>0.767563351497867</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.145984455909791</v>
+        <v>4.115115177585967</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.077881496914334</v>
+        <v>4.225223881495264</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.579703226526664</v>
+        <v>3.268236111728154</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.16937055676182</v>
+        <v>8.969078669795701</v>
       </c>
       <c r="D4" t="n">
-        <v>13.60754690281939</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.27320610312306</v>
+        <v>11.91800520332642</v>
       </c>
       <c r="F4" t="n">
-        <v>35.38785976451562</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.676353100474</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.429874795593702</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>29.06295205591112</v>
+        <v>133.9315977862266</v>
       </c>
       <c r="J4" t="n">
-        <v>135.5607219955135</v>
+        <v>138.5960284860233</v>
       </c>
       <c r="K4" t="n">
-        <v>19.31478819417333</v>
+        <v>8.45984991954554</v>
       </c>
       <c r="L4" t="n">
-        <v>80.79062630433647</v>
+        <v>63.11276551167558</v>
       </c>
       <c r="M4" t="n">
-        <v>47.69356020953791</v>
+        <v>108.7687164486593</v>
       </c>
       <c r="N4" t="n">
-        <v>92.49343493428798</v>
+        <v>41.89700221420841</v>
       </c>
       <c r="O4" t="n">
-        <v>57.29820137672122</v>
+        <v>37.17719817893713</v>
       </c>
       <c r="P4" t="n">
-        <v>48.99562196422507</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4021908050205845</v>
+        <v>79.48338775739531</v>
       </c>
       <c r="R4" t="n">
-        <v>47.5219588231172</v>
+        <v>99.22109866235866</v>
       </c>
       <c r="S4" t="n">
-        <v>29.70350449511466</v>
+        <v>63.6486024589824</v>
       </c>
       <c r="T4" t="n">
-        <v>58.45168763927086</v>
+        <v>165.3550614537666</v>
       </c>
       <c r="U4" t="n">
-        <v>54.97105147165455</v>
+        <v>9.435843715293341</v>
       </c>
       <c r="V4" t="n">
-        <v>3.938108056632608</v>
+        <v>64.3424767543365</v>
       </c>
       <c r="W4" t="n">
-        <v>92.38050064822586</v>
+        <v>83.41810554214558</v>
       </c>
       <c r="X4" t="n">
-        <v>100.3360336972801</v>
+        <v>55.40995184867532</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.11392928815963</v>
+        <v>28.00680493297333</v>
       </c>
       <c r="Z4" t="n">
-        <v>83.39550865350964</v>
+        <v>91.04157276431246</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.97849132822822</v>
+        <v>49.36705951465475</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.99411495661072</v>
+        <v>82.61139857030346</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.51121803509719</v>
+        <v>82.13692161459267</v>
       </c>
       <c r="AD4" t="n">
-        <v>88.67930720297079</v>
+        <v>87.39438180791258</v>
       </c>
       <c r="AE4" t="n">
-        <v>39.94572233515421</v>
+        <v>59.01327954678085</v>
       </c>
       <c r="AF4" t="n">
-        <v>84.74285719116131</v>
+        <v>61.0085027220934</v>
       </c>
       <c r="AG4" t="n">
-        <v>36.03178224728719</v>
+        <v>18.12792019835087</v>
       </c>
       <c r="AH4" t="n">
-        <v>37.52967291238397</v>
+        <v>81.61871628024774</v>
       </c>
       <c r="AI4" t="n">
-        <v>41.01056383094172</v>
+        <v>69.65314953339038</v>
       </c>
       <c r="AJ4" t="n">
-        <v>92.47393521730191</v>
+        <v>38.89033986067909</v>
       </c>
       <c r="AK4" t="n">
-        <v>22.83076970367124</v>
+        <v>12.15957383991705</v>
       </c>
       <c r="AL4" t="n">
-        <v>16.01014617955204</v>
+        <v>68.63681535976511</v>
       </c>
       <c r="AM4" t="n">
-        <v>40.14684894227863</v>
+        <v>33.75166341473555</v>
       </c>
       <c r="AN4" t="n">
-        <v>32.29388211501518</v>
+        <v>19.47209668963854</v>
       </c>
       <c r="AO4" t="n">
-        <v>20.80913617879451</v>
+        <v>26.72437230688168</v>
       </c>
       <c r="AP4" t="n">
-        <v>9.61254475168893</v>
+        <v>12.75993715177913</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13.0027983212912</v>
+        <v>6.787520557542372</v>
       </c>
       <c r="AR4" t="n">
-        <v>25.79304319359258</v>
+        <v>20.70674149783513</v>
       </c>
       <c r="AS4" t="n">
-        <v>15.35927375723094</v>
+        <v>18.67356849815794</v>
       </c>
       <c r="AT4" t="n">
-        <v>18.79030931697124</v>
+        <v>9.088570266480071</v>
       </c>
       <c r="AU4" t="n">
-        <v>11.06082103460164</v>
+        <v>6.158960186712907</v>
       </c>
       <c r="AV4" t="n">
-        <v>6.257507662269148</v>
+        <v>13.94550858667666</v>
       </c>
       <c r="AW4" t="n">
-        <v>12.62565977409231</v>
+        <v>13.90485462482654</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.91456071404452</v>
+        <v>10.22676432731723</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.75142409159652</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>34.34127004883169</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.95197841021986</v>
+        <v>12.49717277252227</v>
       </c>
       <c r="F5" t="n">
-        <v>15.12698520799647</v>
+        <v>23.45018927371245</v>
       </c>
       <c r="G5" t="n">
-        <v>10.57542584668002</v>
+        <v>16.65297705363964</v>
       </c>
       <c r="H5" t="n">
-        <v>112.4667109480765</v>
+        <v>5.276411192065057</v>
       </c>
       <c r="I5" t="n">
-        <v>36.68588444903092</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>50.74780213633945</v>
+        <v>9.890919475833872</v>
       </c>
       <c r="K5" t="n">
-        <v>20.08636248691184</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>91.19737093974636</v>
+        <v>103.328597323173</v>
       </c>
       <c r="M5" t="n">
-        <v>27.58042332422178</v>
+        <v>39.14881661183063</v>
       </c>
       <c r="N5" t="n">
-        <v>78.87536636799314</v>
+        <v>33.22016498657123</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>41.02079223814489</v>
       </c>
       <c r="P5" t="n">
-        <v>47.54395910104046</v>
+        <v>0.8365959628153341</v>
       </c>
       <c r="Q5" t="n">
-        <v>78.1061047439442</v>
+        <v>27.12176784938402</v>
       </c>
       <c r="R5" t="n">
-        <v>29.804649499812</v>
+        <v>158.1284693636929</v>
       </c>
       <c r="S5" t="n">
-        <v>5.533169400235214</v>
+        <v>6.88980683490229</v>
       </c>
       <c r="T5" t="n">
-        <v>58.98471014403088</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>156.8732111590461</v>
+        <v>58.39301242572641</v>
       </c>
       <c r="V5" t="n">
-        <v>85.85213712953686</v>
+        <v>55.91495781420773</v>
       </c>
       <c r="W5" t="n">
-        <v>48.41914099520955</v>
+        <v>36.66871403002085</v>
       </c>
       <c r="X5" t="n">
-        <v>31.23559531774936</v>
+        <v>20.88530245004894</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.52297291816566</v>
+        <v>60.90613433193826</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.9273586554866</v>
+        <v>65.96293669858368</v>
       </c>
       <c r="AA5" t="n">
-        <v>32.91375894784268</v>
+        <v>21.95651328396075</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.156168971298923</v>
+        <v>12.95526314904837</v>
       </c>
       <c r="AC5" t="n">
-        <v>35.35854216753949</v>
+        <v>22.98456839023345</v>
       </c>
       <c r="AD5" t="n">
-        <v>29.21150944318423</v>
+        <v>26.86601762484471</v>
       </c>
       <c r="AE5" t="n">
-        <v>63.69147520981597</v>
+        <v>43.92888881471593</v>
       </c>
       <c r="AF5" t="n">
-        <v>32.61195915602474</v>
+        <v>31.02718243472235</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.526365175163675</v>
+        <v>70.83024720968065</v>
       </c>
       <c r="AH5" t="n">
-        <v>120.8159194911604</v>
+        <v>38.5325280397012</v>
       </c>
       <c r="AI5" t="n">
-        <v>25.70942810790537</v>
+        <v>45.90351169540984</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12.06346697217468</v>
+        <v>48.20119813202739</v>
       </c>
       <c r="AK5" t="n">
-        <v>24.90064565098638</v>
+        <v>75.80627891319067</v>
       </c>
       <c r="AL5" t="n">
-        <v>30.37654483133221</v>
+        <v>17.12119827534919</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.781401052699975</v>
+        <v>36.97062956620147</v>
       </c>
       <c r="AN5" t="n">
-        <v>25.15085898072602</v>
+        <v>24.76554691891605</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.90798574541268</v>
+        <v>14.91014423773293</v>
       </c>
       <c r="AP5" t="n">
-        <v>32.14586226521412</v>
+        <v>51.5188496565235</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.983212202939264</v>
+        <v>23.74563957939464</v>
       </c>
       <c r="AR5" t="n">
-        <v>22.19819105903358</v>
+        <v>5.553112131665882</v>
       </c>
       <c r="AS5" t="n">
-        <v>17.07116944257349</v>
+        <v>18.71204407097546</v>
       </c>
       <c r="AT5" t="n">
-        <v>37.98846811620245</v>
+        <v>26.08668520031653</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>25.20707113226853</v>
       </c>
       <c r="AV5" t="n">
-        <v>24.60937470372965</v>
+        <v>13.16399119089713</v>
       </c>
       <c r="AW5" t="n">
-        <v>30.06426631939872</v>
+        <v>2.989483041905145</v>
       </c>
       <c r="AX5" t="n">
-        <v>26.69032487932911</v>
+        <v>15.59701314544925</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.585731327802904</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.286366713781728</v>
+        <v>1.786310315075212</v>
       </c>
       <c r="E6" t="n">
-        <v>17.59258028609849</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>13.08854369171535</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.555138463388917</v>
+        <v>11.32895139492638</v>
       </c>
       <c r="I6" t="n">
-        <v>3.072003441344417</v>
+        <v>2.472786163952374</v>
       </c>
       <c r="J6" t="n">
-        <v>11.70240256655913</v>
+        <v>3.766867423527492</v>
       </c>
       <c r="K6" t="n">
-        <v>10.57672958889569</v>
+        <v>14.17512251409811</v>
       </c>
       <c r="L6" t="n">
-        <v>9.8551375823572</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>24.30183563785918</v>
+        <v>66.938636302825</v>
       </c>
       <c r="N6" t="n">
-        <v>15.98902232574414</v>
+        <v>41.74951003905728</v>
       </c>
       <c r="O6" t="n">
-        <v>24.24533884018962</v>
+        <v>7.544683419986239</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>85.35519572968053</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.62279272219806</v>
+        <v>19.62983213601681</v>
       </c>
       <c r="R6" t="n">
-        <v>16.83580614581364</v>
+        <v>72.81411291485361</v>
       </c>
       <c r="S6" t="n">
-        <v>60.61522062175329</v>
+        <v>20.88079821773248</v>
       </c>
       <c r="T6" t="n">
-        <v>4.558802324450934</v>
+        <v>17.68722264846652</v>
       </c>
       <c r="U6" t="n">
-        <v>21.27380913162379</v>
+        <v>17.53908164635244</v>
       </c>
       <c r="V6" t="n">
-        <v>10.68140332860465</v>
+        <v>4.505685534033312</v>
       </c>
       <c r="W6" t="n">
-        <v>31.96600845416508</v>
+        <v>33.40633046003717</v>
       </c>
       <c r="X6" t="n">
-        <v>17.41641376054539</v>
+        <v>25.41904645623766</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.99874539742732</v>
+        <v>29.277714373379</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.10695943641201</v>
+        <v>9.524054654506642</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.22687401953526</v>
+        <v>17.30812188351699</v>
       </c>
       <c r="AB6" t="n">
-        <v>41.04980003349382</v>
+        <v>16.37116277282263</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.15633148392808</v>
+        <v>10.33772403239199</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.05982926979262</v>
+        <v>14.39159206373959</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.23024086418352</v>
+        <v>13.65778876699836</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.71770354583353</v>
+        <v>13.89367559362913</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.55467102936563</v>
+        <v>17.00154647127909</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.82847218603071</v>
+        <v>7.453860038372881</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.727767605855874</v>
+        <v>11.45351971792916</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.747778380628972</v>
+        <v>10.77195280928657</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.691549072519506</v>
+        <v>4.124072931071789</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.124006094475521</v>
+        <v>12.11278290541702</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.103007697689667</v>
+        <v>8.041761659205076</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.457175047368681</v>
+        <v>4.128700423160385</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.618098275361409</v>
+        <v>4.124962239524592</v>
       </c>
       <c r="AP6" t="n">
-        <v>6.030905119123013</v>
+        <v>2.581452824417751</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.184211413386837</v>
+        <v>5.22328324710519</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.5714497085436768</v>
+        <v>1.869634339206977</v>
       </c>
       <c r="AS6" t="n">
-        <v>12.75088252135837</v>
+        <v>2.34569940749898</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.032778407997001</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.86358467792283</v>
+        <v>3.485099752921031</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>0.5684426740955049</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.327764290198297</v>
+        <v>2.412054049583591</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.539781947759308</v>
+        <v>1.51826032613456</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.282386239357253</v>
       </c>
       <c r="D7" t="n">
-        <v>7.722229410904676</v>
+        <v>7.656802239760836</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.06664786528318</v>
+        <v>22.16609936714359</v>
       </c>
       <c r="G7" t="n">
-        <v>7.644069859381098</v>
+        <v>11.99960115926282</v>
       </c>
       <c r="H7" t="n">
-        <v>24.86452543859546</v>
+        <v>18.79028523375891</v>
       </c>
       <c r="I7" t="n">
-        <v>19.42214712209919</v>
+        <v>31.36846832954975</v>
       </c>
       <c r="J7" t="n">
-        <v>17.55707617772764</v>
+        <v>26.22227197016294</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6422961817085726</v>
+        <v>40.4871570941658</v>
       </c>
       <c r="L7" t="n">
-        <v>112.4558454010092</v>
+        <v>49.30007407642428</v>
       </c>
       <c r="M7" t="n">
-        <v>35.08533727680209</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5.244776071992181</v>
+        <v>102.0905811330621</v>
       </c>
       <c r="O7" t="n">
-        <v>10.17187760184662</v>
+        <v>13.36544433537773</v>
       </c>
       <c r="P7" t="n">
-        <v>18.17391502401267</v>
+        <v>26.73947430918389</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.54017590257877</v>
+        <v>39.20534954316553</v>
       </c>
       <c r="R7" t="n">
-        <v>34.34574033407919</v>
+        <v>52.99206657040318</v>
       </c>
       <c r="S7" t="n">
-        <v>57.72472882106356</v>
+        <v>10.82297342673785</v>
       </c>
       <c r="T7" t="n">
-        <v>14.67400271289991</v>
+        <v>29.62964376622839</v>
       </c>
       <c r="U7" t="n">
-        <v>10.29926062995721</v>
+        <v>33.58564997224104</v>
       </c>
       <c r="V7" t="n">
-        <v>12.22543743203033</v>
+        <v>22.98482081192784</v>
       </c>
       <c r="W7" t="n">
-        <v>17.36372163766632</v>
+        <v>0.6903514180489961</v>
       </c>
       <c r="X7" t="n">
-        <v>71.45643340219266</v>
+        <v>9.792633203311059</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.75837874185795</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>37.91120041190482</v>
+        <v>33.33796575414986</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.757546713103343</v>
+        <v>2.327835315955842</v>
       </c>
       <c r="AB7" t="n">
-        <v>21.87016527099934</v>
+        <v>64.78802148973215</v>
       </c>
       <c r="AC7" t="n">
-        <v>21.95183974276564</v>
+        <v>14.5526448482136</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.494448983889212</v>
+        <v>9.376415014362394</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.552141255495976</v>
+        <v>9.112024378039424</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>6.298047540791915</v>
       </c>
       <c r="AG7" t="n">
-        <v>20.54918302786512</v>
+        <v>16.66986917873932</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4.133635535761038</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>7.815788567581489</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.5607315830904858</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.721505521575095</v>
+        <v>23.54963155169181</v>
       </c>
       <c r="AL7" t="n">
-        <v>3.791463246699776</v>
+        <v>10.761054361075</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.235253520833967</v>
+        <v>24.22677455082713</v>
       </c>
       <c r="AN7" t="n">
-        <v>21.0905797477748</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.553364787455005</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>5.646480268072644</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.615707571737551</v>
+        <v>13.59142355601086</v>
       </c>
       <c r="AR7" t="n">
-        <v>6.240020724297031</v>
+        <v>9.163316778671099</v>
       </c>
       <c r="AS7" t="n">
-        <v>11.14556300948004</v>
+        <v>13.90400438335704</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.832890035602869</v>
+        <v>1.533851994300563</v>
       </c>
       <c r="AU7" t="n">
-        <v>16.41950466093574</v>
+        <v>13.13184023560899</v>
       </c>
       <c r="AV7" t="n">
-        <v>5.833235150082776</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.673549768177616</v>
+        <v>1.76917684064457</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.150695041814306</v>
+        <v>13.41255538349215</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.78337542475368</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>16.20594907535853</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.43211713966879</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.75447646077402</v>
+        <v>76.62242879022139</v>
       </c>
       <c r="G8" t="n">
-        <v>27.9540740941054</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.81832440933522</v>
+        <v>31.08340056883473</v>
       </c>
       <c r="I8" t="n">
-        <v>53.26983613334039</v>
+        <v>173.1380564393833</v>
       </c>
       <c r="J8" t="n">
-        <v>34.70191578946569</v>
+        <v>26.90074462283856</v>
       </c>
       <c r="K8" t="n">
-        <v>29.21576448041897</v>
+        <v>43.19846887871073</v>
       </c>
       <c r="L8" t="n">
-        <v>192.2589919884511</v>
+        <v>51.63196860257117</v>
       </c>
       <c r="M8" t="n">
-        <v>81.339855418526</v>
+        <v>77.57589375944214</v>
       </c>
       <c r="N8" t="n">
-        <v>79.45763116210553</v>
+        <v>224.5012375427012</v>
       </c>
       <c r="O8" t="n">
-        <v>79.26072118857455</v>
+        <v>69.81379564918912</v>
       </c>
       <c r="P8" t="n">
-        <v>15.97030676753361</v>
+        <v>44.16840747597124</v>
       </c>
       <c r="Q8" t="n">
-        <v>22.62784716790799</v>
+        <v>4.350221765072972</v>
       </c>
       <c r="R8" t="n">
-        <v>68.19385483818144</v>
+        <v>118.7866617683834</v>
       </c>
       <c r="S8" t="n">
-        <v>45.43111933867019</v>
+        <v>28.97983953580551</v>
       </c>
       <c r="T8" t="n">
-        <v>28.11384207051131</v>
+        <v>80.82755950355771</v>
       </c>
       <c r="U8" t="n">
-        <v>82.41270492393656</v>
+        <v>37.01168140905167</v>
       </c>
       <c r="V8" t="n">
-        <v>48.89655380607288</v>
+        <v>50.10476643179829</v>
       </c>
       <c r="W8" t="n">
-        <v>101.009686212923</v>
+        <v>94.35953786893863</v>
       </c>
       <c r="X8" t="n">
-        <v>187.0289145405193</v>
+        <v>53.27250190239563</v>
       </c>
       <c r="Y8" t="n">
-        <v>118.8644219280201</v>
+        <v>97.51374238467783</v>
       </c>
       <c r="Z8" t="n">
-        <v>126.8782596800677</v>
+        <v>29.14368142642329</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.47198240419625</v>
+        <v>46.20392805535971</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.8179599914303</v>
+        <v>129.3817361769262</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.76489143121958</v>
+        <v>169.2397750774483</v>
       </c>
       <c r="AD8" t="n">
-        <v>96.05949047178152</v>
+        <v>82.92026924626055</v>
       </c>
       <c r="AE8" t="n">
-        <v>130.4689816298324</v>
+        <v>128.4850530350519</v>
       </c>
       <c r="AF8" t="n">
-        <v>172.3026187050501</v>
+        <v>89.55482273350475</v>
       </c>
       <c r="AG8" t="n">
-        <v>201.9428361020425</v>
+        <v>5.401803305426498</v>
       </c>
       <c r="AH8" t="n">
-        <v>160.7233126474601</v>
+        <v>60.18198953768584</v>
       </c>
       <c r="AI8" t="n">
-        <v>94.28938529012952</v>
+        <v>107.5020602433659</v>
       </c>
       <c r="AJ8" t="n">
-        <v>49.36299432793841</v>
+        <v>102.7583922466651</v>
       </c>
       <c r="AK8" t="n">
-        <v>62.99194931947202</v>
+        <v>116.9666502957369</v>
       </c>
       <c r="AL8" t="n">
-        <v>127.5805329092707</v>
+        <v>146.154228451977</v>
       </c>
       <c r="AM8" t="n">
-        <v>37.32938506205464</v>
+        <v>44.79696287399243</v>
       </c>
       <c r="AN8" t="n">
-        <v>26.20414706782828</v>
+        <v>25.90720833307603</v>
       </c>
       <c r="AO8" t="n">
-        <v>25.21511814971671</v>
+        <v>38.2937728413748</v>
       </c>
       <c r="AP8" t="n">
-        <v>26.03874590974367</v>
+        <v>30.35732441740534</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26.45125983310693</v>
+        <v>17.08224138857083</v>
       </c>
       <c r="AR8" t="n">
-        <v>10.76906796286091</v>
+        <v>28.63369256015631</v>
       </c>
       <c r="AS8" t="n">
-        <v>44.40918530705628</v>
+        <v>18.09150636207171</v>
       </c>
       <c r="AT8" t="n">
-        <v>14.52789172175668</v>
+        <v>10.37594885371876</v>
       </c>
       <c r="AU8" t="n">
-        <v>50.72861651111648</v>
+        <v>14.72778091377503</v>
       </c>
       <c r="AV8" t="n">
-        <v>29.89552525447563</v>
+        <v>22.24138304715471</v>
       </c>
       <c r="AW8" t="n">
-        <v>27.4500479152558</v>
+        <v>22.46007364160741</v>
       </c>
       <c r="AX8" t="n">
-        <v>33.18529402231016</v>
+        <v>28.24780807616645</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0184695448805709</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.44184713143595</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.326604045376639</v>
+        <v>3.565973925450256</v>
       </c>
       <c r="F9" t="n">
-        <v>3.616166907472909</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.841394334459778</v>
+        <v>1.563617314936822</v>
       </c>
       <c r="H9" t="n">
-        <v>3.176931768695691</v>
+        <v>5.854291970867085</v>
       </c>
       <c r="I9" t="n">
-        <v>9.975479735826871</v>
+        <v>4.58623864246555</v>
       </c>
       <c r="J9" t="n">
-        <v>6.091541386982309</v>
+        <v>4.164133999044997</v>
       </c>
       <c r="K9" t="n">
-        <v>3.903407438075257</v>
+        <v>4.631005807953119</v>
       </c>
       <c r="L9" t="n">
-        <v>8.511251680665575</v>
+        <v>1.081635705410355</v>
       </c>
       <c r="M9" t="n">
-        <v>21.56048998545901</v>
+        <v>3.2208337819494</v>
       </c>
       <c r="N9" t="n">
-        <v>5.75610468798778</v>
+        <v>2.759577477319888</v>
       </c>
       <c r="O9" t="n">
-        <v>3.151143081332828</v>
+        <v>2.474855761996837</v>
       </c>
       <c r="P9" t="n">
-        <v>7.66503089117284</v>
+        <v>3.367083000031598</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8382295537396296</v>
+        <v>6.170540350729945</v>
       </c>
       <c r="R9" t="n">
-        <v>2.742314250615677</v>
+        <v>5.784220193897589</v>
       </c>
       <c r="S9" t="n">
-        <v>5.517861088449558</v>
+        <v>4.751126349194163</v>
       </c>
       <c r="T9" t="n">
-        <v>1.778347826870754</v>
+        <v>4.748659301418962</v>
       </c>
       <c r="U9" t="n">
-        <v>6.240440301410722</v>
+        <v>3.765276422362068</v>
       </c>
       <c r="V9" t="n">
-        <v>2.059922187049854</v>
+        <v>4.802693120827556</v>
       </c>
       <c r="W9" t="n">
-        <v>2.563227993305748</v>
+        <v>5.751568467513606</v>
       </c>
       <c r="X9" t="n">
-        <v>7.268050511235419</v>
+        <v>5.944091841085969</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.466626379588172</v>
+        <v>4.88943656637301</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.055761845057896</v>
+        <v>5.594701254463943</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.619035006454466</v>
+        <v>4.902685933443005</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.491140958698917</v>
+        <v>6.424815052263323</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.406759401134021</v>
+        <v>4.398162330830643</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.632268001370063</v>
+        <v>16.95415993105967</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.0746940574622</v>
+        <v>10.49450861033817</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.550170387580458</v>
+        <v>8.405890558944586</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.941829947862491</v>
+        <v>5.634963977784836</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.110850038799114</v>
+        <v>4.470820402310733</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.394776726478717</v>
+        <v>4.135755576107655</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.584698322698842</v>
+        <v>13.15819966605703</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.920251414832064</v>
+        <v>4.546079905438818</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.733094011333585</v>
+        <v>4.506615239292842</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.657416249956211</v>
+        <v>1.905306470713025</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.216734889455505</v>
+        <v>6.257329478778223</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.003217578681233</v>
+        <v>4.68703994788974</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.559772240823626</v>
+        <v>4.774631234668744</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10.2180224107254</v>
+        <v>4.975551282216339</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.981639378166493</v>
+        <v>2.295039626162747</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.417614476497717</v>
+        <v>2.443842046800697</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.487368930763496</v>
+        <v>0.9231213464932595</v>
       </c>
       <c r="AU9" t="n">
-        <v>5.009793627493436</v>
+        <v>3.424835414268935</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.148228725929536</v>
+        <v>3.438108238958972</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.029809762993239</v>
+        <v>1.264041238767706</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.785363996657897</v>
+        <v>4.384816630816989</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>3.650489609184785</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.69789827723626</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.505633385428792</v>
+        <v>10.16799694854934</v>
       </c>
       <c r="F10" t="n">
-        <v>23.17450774691555</v>
+        <v>12.47572200594379</v>
       </c>
       <c r="G10" t="n">
-        <v>1.217148924954214</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.059486078650341</v>
+        <v>1.335615201821487</v>
       </c>
       <c r="I10" t="n">
-        <v>103.3469652525056</v>
+        <v>53.99284674168476</v>
       </c>
       <c r="J10" t="n">
-        <v>45.71770615513225</v>
+        <v>1.179029352572638</v>
       </c>
       <c r="K10" t="n">
-        <v>8.75419402803378</v>
+        <v>69.42914417290353</v>
       </c>
       <c r="L10" t="n">
-        <v>106.2284885936685</v>
+        <v>66.51848281653417</v>
       </c>
       <c r="M10" t="n">
-        <v>48.23542316216486</v>
+        <v>38.36560293467568</v>
       </c>
       <c r="N10" t="n">
-        <v>44.90546880825322</v>
+        <v>75.36662940322391</v>
       </c>
       <c r="O10" t="n">
-        <v>69.11006944163107</v>
+        <v>53.27186862396556</v>
       </c>
       <c r="P10" t="n">
-        <v>13.93710103396162</v>
+        <v>83.58401412939357</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.29776940152971</v>
+        <v>23.20893727740369</v>
       </c>
       <c r="R10" t="n">
-        <v>89.75923994202766</v>
+        <v>57.40189701134273</v>
       </c>
       <c r="S10" t="n">
-        <v>73.02168558280563</v>
+        <v>18.77231788289347</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9643956675153</v>
+        <v>7.231720146220347</v>
       </c>
       <c r="U10" t="n">
-        <v>98.48294144537184</v>
+        <v>65.66795154902579</v>
       </c>
       <c r="V10" t="n">
-        <v>64.83890233919281</v>
+        <v>26.08086334375542</v>
       </c>
       <c r="W10" t="n">
-        <v>86.61925384085511</v>
+        <v>77.67334214323922</v>
       </c>
       <c r="X10" t="n">
-        <v>46.8970944714205</v>
+        <v>41.19661541586733</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.50400857108443</v>
+        <v>18.40419642996041</v>
       </c>
       <c r="Z10" t="n">
-        <v>47.73762711457551</v>
+        <v>78.4014351385929</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.474610929779</v>
+        <v>73.29867430526416</v>
       </c>
       <c r="AB10" t="n">
-        <v>53.04469561640919</v>
+        <v>87.17019908019014</v>
       </c>
       <c r="AC10" t="n">
-        <v>74.29489221626105</v>
+        <v>84.40638007065434</v>
       </c>
       <c r="AD10" t="n">
-        <v>77.30026489782294</v>
+        <v>69.30612952262862</v>
       </c>
       <c r="AE10" t="n">
-        <v>42.2639967126012</v>
+        <v>104.1478685029036</v>
       </c>
       <c r="AF10" t="n">
-        <v>87.88892351244746</v>
+        <v>67.55264626395106</v>
       </c>
       <c r="AG10" t="n">
-        <v>79.05273763782326</v>
+        <v>58.58644594669379</v>
       </c>
       <c r="AH10" t="n">
-        <v>59.85009900231085</v>
+        <v>49.90474400864886</v>
       </c>
       <c r="AI10" t="n">
-        <v>17.83176346202594</v>
+        <v>74.35766353247124</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48.33497485754361</v>
+        <v>69.3684652848757</v>
       </c>
       <c r="AK10" t="n">
-        <v>42.86448028309527</v>
+        <v>32.24328262522861</v>
       </c>
       <c r="AL10" t="n">
-        <v>26.46061481066539</v>
+        <v>20.04533653398264</v>
       </c>
       <c r="AM10" t="n">
-        <v>16.00421451441531</v>
+        <v>22.14549406676564</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.31898806379293</v>
+        <v>37.15341803146313</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.298491980957497</v>
+        <v>21.39556880456501</v>
       </c>
       <c r="AP10" t="n">
-        <v>16.78101164035438</v>
+        <v>14.5203266546596</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.199708801827242</v>
+        <v>15.15102386810138</v>
       </c>
       <c r="AR10" t="n">
-        <v>9.04517324247772</v>
+        <v>17.13489228661515</v>
       </c>
       <c r="AS10" t="n">
-        <v>23.25255452814693</v>
+        <v>17.36336869946453</v>
       </c>
       <c r="AT10" t="n">
-        <v>7.938688218822268</v>
+        <v>11.0577776263249</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.467968793233778</v>
+        <v>11.40014972493576</v>
       </c>
       <c r="AV10" t="n">
-        <v>10.36786724680956</v>
+        <v>8.024793651900668</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.23903211071111</v>
+        <v>10.16740289518162</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.702815597540681</v>
+        <v>10.87974650006114</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>23.50984660419897</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.027761156103977</v>
+        <v>16.4552131428055</v>
       </c>
       <c r="E11" t="n">
-        <v>22.16504730996039</v>
+        <v>26.33031000548187</v>
       </c>
       <c r="F11" t="n">
-        <v>21.22298708309138</v>
+        <v>9.026885896343687</v>
       </c>
       <c r="G11" t="n">
-        <v>37.91041008868121</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>31.74071899747252</v>
+        <v>10.16570450754705</v>
       </c>
       <c r="I11" t="n">
-        <v>114.8229187883458</v>
+        <v>0.3098590439241873</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>50.56309379235216</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44849628617996</v>
+        <v>32.14386439129206</v>
       </c>
       <c r="L11" t="n">
-        <v>249.4611913823059</v>
+        <v>154.2196431408117</v>
       </c>
       <c r="M11" t="n">
-        <v>36.29015320715092</v>
+        <v>34.5243762483244</v>
       </c>
       <c r="N11" t="n">
-        <v>11.41833542379655</v>
+        <v>51.09656708660202</v>
       </c>
       <c r="O11" t="n">
-        <v>35.86620870018807</v>
+        <v>104.5043008353337</v>
       </c>
       <c r="P11" t="n">
-        <v>36.10209571415849</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.85875169264394</v>
+        <v>11.702669478019</v>
       </c>
       <c r="R11" t="n">
-        <v>136.5116466717353</v>
+        <v>136.9851127795997</v>
       </c>
       <c r="S11" t="n">
-        <v>88.91656889351917</v>
+        <v>19.25947195443564</v>
       </c>
       <c r="T11" t="n">
-        <v>64.34854857596737</v>
+        <v>35.11835519763851</v>
       </c>
       <c r="U11" t="n">
-        <v>87.31326438836192</v>
+        <v>59.28761435308233</v>
       </c>
       <c r="V11" t="n">
-        <v>39.38999914499731</v>
+        <v>39.39285932652773</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>16.84295374328428</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44987894401855</v>
+        <v>50.34289703437233</v>
       </c>
       <c r="Y11" t="n">
-        <v>36.41402620729512</v>
+        <v>77.26936789459531</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.75452172416015</v>
+        <v>53.98036087197836</v>
       </c>
       <c r="AA11" t="n">
-        <v>38.71909054024595</v>
+        <v>121.8259961086226</v>
       </c>
       <c r="AB11" t="n">
-        <v>75.85490002608751</v>
+        <v>40.67043278563011</v>
       </c>
       <c r="AC11" t="n">
-        <v>88.98297326838559</v>
+        <v>54.65164659567981</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.715513427462398</v>
+        <v>24.61848829792854</v>
       </c>
       <c r="AE11" t="n">
-        <v>27.61573237536872</v>
+        <v>23.79389960094417</v>
       </c>
       <c r="AF11" t="n">
-        <v>22.14920892687673</v>
+        <v>48.21570939333501</v>
       </c>
       <c r="AG11" t="n">
-        <v>70.54072132443638</v>
+        <v>82.88571219537917</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.470054537931535</v>
+        <v>21.56417579835109</v>
       </c>
       <c r="AJ11" t="n">
-        <v>57.53932169757518</v>
+        <v>35.25659822201276</v>
       </c>
       <c r="AK11" t="n">
-        <v>33.44517386416277</v>
+        <v>66.43570652513584</v>
       </c>
       <c r="AL11" t="n">
-        <v>26.77316685819893</v>
+        <v>18.79347395872868</v>
       </c>
       <c r="AM11" t="n">
-        <v>26.19314217739521</v>
+        <v>8.279557283758477</v>
       </c>
       <c r="AN11" t="n">
-        <v>45.66242095897109</v>
+        <v>26.792458691128</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.00774651081743</v>
+        <v>12.10962160298107</v>
       </c>
       <c r="AP11" t="n">
-        <v>28.07052196844095</v>
+        <v>28.44291961704513</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>8.601232915679532</v>
       </c>
       <c r="AR11" t="n">
-        <v>22.5164893229836</v>
+        <v>26.19059092145581</v>
       </c>
       <c r="AS11" t="n">
-        <v>17.75543104384148</v>
+        <v>13.49293086486605</v>
       </c>
       <c r="AT11" t="n">
-        <v>33.96864170612331</v>
+        <v>26.06039093572196</v>
       </c>
       <c r="AU11" t="n">
-        <v>35.08976252501287</v>
+        <v>18.46712244308397</v>
       </c>
       <c r="AV11" t="n">
-        <v>33.92505178163938</v>
+        <v>16.67696912324912</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.602206602836819</v>
+        <v>28.6526689989918</v>
       </c>
       <c r="AX11" t="n">
-        <v>35.39433049964732</v>
+        <v>28.26891254713839</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5.452669023736979</v>
+        <v>8.949322543084087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8601829354174313</v>
+        <v>0.9116401976494418</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3946454569455041</v>
+        <v>15.61102824806524</v>
       </c>
       <c r="F12" t="n">
-        <v>12.58115463826467</v>
+        <v>3.313315019866566</v>
       </c>
       <c r="G12" t="n">
-        <v>5.713950150030538</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>32.4568676557671</v>
+        <v>4.567758945533503</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93553477913957</v>
+        <v>11.81079984800905</v>
       </c>
       <c r="J12" t="n">
-        <v>19.95041201231145</v>
+        <v>7.475757365306755</v>
       </c>
       <c r="K12" t="n">
-        <v>31.04874227133544</v>
+        <v>29.3641810314532</v>
       </c>
       <c r="L12" t="n">
-        <v>43.8202857443957</v>
+        <v>9.124587022547853</v>
       </c>
       <c r="M12" t="n">
-        <v>48.71468954129864</v>
+        <v>5.674951229178905</v>
       </c>
       <c r="N12" t="n">
-        <v>13.78021381736817</v>
+        <v>26.34622855386791</v>
       </c>
       <c r="O12" t="n">
-        <v>32.70141431797455</v>
+        <v>33.86906904638373</v>
       </c>
       <c r="P12" t="n">
-        <v>88.84659986491623</v>
+        <v>80.53515434945741</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.13942215412735</v>
+        <v>26.8806563989224</v>
       </c>
       <c r="R12" t="n">
-        <v>14.65233947699953</v>
+        <v>11.71238428577913</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2022236258516301</v>
+        <v>15.3876023258698</v>
       </c>
       <c r="T12" t="n">
-        <v>18.05237931688674</v>
+        <v>16.57732126647585</v>
       </c>
       <c r="U12" t="n">
-        <v>10.7701464646432</v>
+        <v>31.05667075096293</v>
       </c>
       <c r="V12" t="n">
-        <v>13.19551117999862</v>
+        <v>20.93352634020553</v>
       </c>
       <c r="W12" t="n">
-        <v>12.9039541512379</v>
+        <v>21.64704391727095</v>
       </c>
       <c r="X12" t="n">
-        <v>40.77953012771731</v>
+        <v>28.18572406392328</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.07537915904068</v>
+        <v>15.69441992282738</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.90900336628569</v>
+        <v>22.41286821978815</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.64985910962855</v>
+        <v>36.08082791183963</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.699655169861373</v>
+        <v>25.35815810630499</v>
       </c>
       <c r="AC12" t="n">
-        <v>22.72858346040643</v>
+        <v>25.26092027707914</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.36811902324572</v>
+        <v>4.188448402965671</v>
       </c>
       <c r="AE12" t="n">
-        <v>28.03798696251406</v>
+        <v>14.42912623346205</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.750228573164943</v>
+        <v>9.630556196298418</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.38158745132808</v>
+        <v>8.943279835494685</v>
       </c>
       <c r="AH12" t="n">
-        <v>30.17686469878997</v>
+        <v>7.563570117363658</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.121659285703094</v>
+        <v>10.36406143901498</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.7072920109242</v>
+        <v>5.55392672368028</v>
       </c>
       <c r="AK12" t="n">
-        <v>5.36882416136812</v>
+        <v>1.604158661270907</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.542967394991392</v>
+        <v>2.478167054881299</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.860864697514379</v>
+        <v>2.960430624315551</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.727585936378359</v>
+        <v>3.091678464604626</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.837018924012799</v>
+        <v>4.042614300182835</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.485708143060827</v>
+        <v>2.739029251381325</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.905580450414292</v>
+        <v>0.7484220983419267</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.131006616353947</v>
+        <v>2.686156857651925</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.704467363546628</v>
+        <v>2.16383796189238</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.058977268301703</v>
+        <v>3.915793180943375</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9704650965247368</v>
+        <v>2.027612230317204</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.08477404604307687</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.009892865545601</v>
+        <v>10.60108694616001</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.949304139376187</v>
+        <v>0.6546905476247953</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>8.901526876256552</v>
+        <v>5.263956887786189</v>
       </c>
       <c r="D13" t="n">
-        <v>3.865269998893988</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.967979999302263</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.933550389108352</v>
       </c>
       <c r="G13" t="n">
-        <v>8.380819343582928</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>30.68066034133754</v>
+        <v>33.71799414770872</v>
       </c>
       <c r="I13" t="n">
-        <v>28.99561203079868</v>
+        <v>16.23574094100878</v>
       </c>
       <c r="J13" t="n">
-        <v>53.60105796232574</v>
+        <v>23.39350841487759</v>
       </c>
       <c r="K13" t="n">
-        <v>100.966683835394</v>
+        <v>52.13531298284745</v>
       </c>
       <c r="L13" t="n">
-        <v>33.14812536360209</v>
+        <v>37.9811309404302</v>
       </c>
       <c r="M13" t="n">
-        <v>57.82997621283333</v>
+        <v>68.92539422945853</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.97097633329746</v>
       </c>
       <c r="O13" t="n">
-        <v>115.9999314150718</v>
+        <v>50.67899638097406</v>
       </c>
       <c r="P13" t="n">
-        <v>18.28068213837331</v>
+        <v>19.89988146937645</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.93417386880296</v>
+        <v>9.254100434100913</v>
       </c>
       <c r="R13" t="n">
-        <v>11.60561951981356</v>
+        <v>18.80824289976008</v>
       </c>
       <c r="S13" t="n">
-        <v>41.76072676804609</v>
+        <v>10.8087708621025</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808474966507436</v>
+        <v>9.445999888486057</v>
       </c>
       <c r="U13" t="n">
-        <v>69.08603005767992</v>
+        <v>33.29924586522534</v>
       </c>
       <c r="V13" t="n">
-        <v>18.78222322509153</v>
+        <v>11.29786509339382</v>
       </c>
       <c r="W13" t="n">
-        <v>109.8268278210727</v>
+        <v>15.31491938203273</v>
       </c>
       <c r="X13" t="n">
-        <v>12.67752881326698</v>
+        <v>8.729925603482609</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.20784158361769</v>
+        <v>23.0930568845266</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.13198431221012</v>
+        <v>42.9310951839679</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.760296629984664</v>
+        <v>70.26810972718283</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>33.16836664545966</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.669729001050325</v>
+        <v>19.91482476065109</v>
       </c>
       <c r="AD13" t="n">
-        <v>28.15134329615847</v>
+        <v>9.632027926395693</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.14008884765457</v>
+        <v>20.12763534990095</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.05051512631857</v>
+        <v>2.429584145803526</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.99496784666234</v>
+        <v>23.97982027886068</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.04967487537214</v>
+        <v>11.82736350484188</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.366562823559759</v>
+        <v>9.928870587225315</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.26020860563442</v>
+        <v>4.610918312147128</v>
       </c>
       <c r="AK13" t="n">
-        <v>11.05499406665069</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.163504681309262</v>
+        <v>6.268681717255368</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.777556257721041</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1.705906711113265</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.871024160661097</v>
+        <v>11.62893309596779</v>
       </c>
       <c r="AP13" t="n">
-        <v>12.30693502834532</v>
+        <v>28.60543643590822</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.50004742211424</v>
+        <v>11.8438099995136</v>
       </c>
       <c r="AR13" t="n">
-        <v>8.130747151890358</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.381603387194945</v>
+        <v>5.589572489182742</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.808401104297604</v>
+        <v>14.57329461025738</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.636529769423222</v>
+        <v>1.250399306899098</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.629952999872325</v>
+        <v>4.267436957791302</v>
       </c>
       <c r="AW13" t="n">
-        <v>9.93233913102805</v>
+        <v>2.68753592398624</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.5525017766102791</v>
+        <v>5.386702293898836</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>35.63776513515305</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>19.00465006875891</v>
+        <v>14.29224680222661</v>
       </c>
       <c r="E14" t="n">
-        <v>26.2121319479059</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>41.55035865522704</v>
+        <v>13.77133227353163</v>
       </c>
       <c r="G14" t="n">
-        <v>57.01027883188377</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>10.442540654073</v>
       </c>
       <c r="I14" t="n">
-        <v>64.35399145209234</v>
+        <v>52.03437123020538</v>
       </c>
       <c r="J14" t="n">
-        <v>69.53892661457948</v>
+        <v>42.18157637263913</v>
       </c>
       <c r="K14" t="n">
-        <v>61.96819170027791</v>
+        <v>188.7160759587758</v>
       </c>
       <c r="L14" t="n">
-        <v>88.92875851343371</v>
+        <v>63.92768866658118</v>
       </c>
       <c r="M14" t="n">
-        <v>48.82946749763269</v>
+        <v>68.81873096078407</v>
       </c>
       <c r="N14" t="n">
-        <v>101.6221666630698</v>
+        <v>30.14737981302017</v>
       </c>
       <c r="O14" t="n">
-        <v>46.86907736642023</v>
+        <v>107.017564681572</v>
       </c>
       <c r="P14" t="n">
-        <v>95.52388316827853</v>
+        <v>91.16406589404104</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.7149895071714</v>
+        <v>56.47698429806722</v>
       </c>
       <c r="R14" t="n">
-        <v>43.28934397536342</v>
+        <v>39.84361360793782</v>
       </c>
       <c r="S14" t="n">
-        <v>34.48582528689266</v>
+        <v>125.1669460634543</v>
       </c>
       <c r="T14" t="n">
-        <v>104.0531868356076</v>
+        <v>34.95326806166272</v>
       </c>
       <c r="U14" t="n">
-        <v>32.91104921345693</v>
+        <v>60.48443239753541</v>
       </c>
       <c r="V14" t="n">
-        <v>13.68494741497715</v>
+        <v>67.68358581108599</v>
       </c>
       <c r="W14" t="n">
-        <v>90.95419782327993</v>
+        <v>34.68401823588628</v>
       </c>
       <c r="X14" t="n">
-        <v>30.42222281218122</v>
+        <v>91.16601065070552</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.49947697938504</v>
+        <v>93.56201871770719</v>
       </c>
       <c r="Z14" t="n">
-        <v>131.645639824587</v>
+        <v>92.89108932310982</v>
       </c>
       <c r="AA14" t="n">
-        <v>142.531292820252</v>
+        <v>107.9513301178277</v>
       </c>
       <c r="AB14" t="n">
-        <v>264.2233109068004</v>
+        <v>87.24144718782698</v>
       </c>
       <c r="AC14" t="n">
-        <v>110.6399245006983</v>
+        <v>61.4898401835101</v>
       </c>
       <c r="AD14" t="n">
-        <v>181.5112205006178</v>
+        <v>121.4579459787658</v>
       </c>
       <c r="AE14" t="n">
-        <v>103.8367998549058</v>
+        <v>86.959452498567</v>
       </c>
       <c r="AF14" t="n">
-        <v>145.8657458127251</v>
+        <v>94.75454419672521</v>
       </c>
       <c r="AG14" t="n">
-        <v>102.3590585314698</v>
+        <v>125.9060921564926</v>
       </c>
       <c r="AH14" t="n">
-        <v>134.8618147466181</v>
+        <v>119.0383779477096</v>
       </c>
       <c r="AI14" t="n">
-        <v>55.25113120423048</v>
+        <v>92.31067045746155</v>
       </c>
       <c r="AJ14" t="n">
-        <v>65.38735825232112</v>
+        <v>47.52805834572314</v>
       </c>
       <c r="AK14" t="n">
-        <v>76.26214557969465</v>
+        <v>99.74076656884031</v>
       </c>
       <c r="AL14" t="n">
-        <v>71.05356436891664</v>
+        <v>64.57069952973596</v>
       </c>
       <c r="AM14" t="n">
-        <v>33.02980535705196</v>
+        <v>33.70091614037609</v>
       </c>
       <c r="AN14" t="n">
-        <v>11.87258388223112</v>
+        <v>21.10741830440875</v>
       </c>
       <c r="AO14" t="n">
-        <v>30.51941622783699</v>
+        <v>17.07189956030697</v>
       </c>
       <c r="AP14" t="n">
-        <v>28.46484950168058</v>
+        <v>35.29572192168504</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19.17474140485125</v>
+        <v>37.2907702851732</v>
       </c>
       <c r="AR14" t="n">
-        <v>25.66195693700976</v>
+        <v>18.66047029234426</v>
       </c>
       <c r="AS14" t="n">
-        <v>19.76595247569443</v>
+        <v>17.0241765409797</v>
       </c>
       <c r="AT14" t="n">
-        <v>21.83775734628881</v>
+        <v>17.39101453878331</v>
       </c>
       <c r="AU14" t="n">
-        <v>20.62476731258076</v>
+        <v>17.56397729379349</v>
       </c>
       <c r="AV14" t="n">
-        <v>15.9165456459777</v>
+        <v>7.241897378383606</v>
       </c>
       <c r="AW14" t="n">
-        <v>21.20319078516403</v>
+        <v>28.44603433007594</v>
       </c>
       <c r="AX14" t="n">
-        <v>15.63791534511113</v>
+        <v>15.84377364306373</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.27667969622201</v>
+        <v>0.92055590108649</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2048844165433231</v>
+        <v>1.919614250745848</v>
       </c>
       <c r="E15" t="n">
-        <v>1.307078641563459</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3.721732869071785</v>
+        <v>2.575714881163258</v>
       </c>
       <c r="G15" t="n">
-        <v>7.910238860071578</v>
+        <v>0.9353958906281039</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.8685613370215068</v>
       </c>
       <c r="I15" t="n">
-        <v>3.650303820185762</v>
+        <v>2.632171348484888</v>
       </c>
       <c r="J15" t="n">
-        <v>3.220820924525143</v>
+        <v>3.038100286934462</v>
       </c>
       <c r="K15" t="n">
-        <v>1.557051356183904</v>
+        <v>3.468311785482295</v>
       </c>
       <c r="L15" t="n">
-        <v>1.931023004099707</v>
+        <v>6.260256062364369</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6446214167308261</v>
+        <v>3.793990749218764</v>
       </c>
       <c r="N15" t="n">
-        <v>3.916825881004844</v>
+        <v>4.695208127272319</v>
       </c>
       <c r="O15" t="n">
-        <v>3.181287878895587</v>
+        <v>9.978185585507203</v>
       </c>
       <c r="P15" t="n">
-        <v>7.129831346945501</v>
+        <v>3.992760393228671</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.392920961171277</v>
+        <v>5.021411374332464</v>
       </c>
       <c r="R15" t="n">
-        <v>3.310635617589439</v>
+        <v>2.160956748719185</v>
       </c>
       <c r="S15" t="n">
-        <v>2.90852623281167</v>
+        <v>8.523235328166715</v>
       </c>
       <c r="T15" t="n">
-        <v>1.978724171678545</v>
+        <v>3.308376069737071</v>
       </c>
       <c r="U15" t="n">
-        <v>3.951303137009226</v>
+        <v>3.771880197272117</v>
       </c>
       <c r="V15" t="n">
-        <v>2.972055272280534</v>
+        <v>2.993068453338871</v>
       </c>
       <c r="W15" t="n">
-        <v>2.458358311285606</v>
+        <v>6.138120871503803</v>
       </c>
       <c r="X15" t="n">
-        <v>8.33286957980987</v>
+        <v>3.608442710435207</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.215702795302301</v>
+        <v>2.510562172671259</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.730376291896206</v>
+        <v>6.624841981991601</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.085568451531209</v>
+        <v>2.995164527173764</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.614100540079851</v>
+        <v>3.429435559065821</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.801629021100509</v>
+        <v>3.440448764145582</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.648852618963018</v>
+        <v>3.569208617332917</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.210926731035221</v>
+        <v>6.419467872309636</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.569050007313161</v>
+        <v>6.993179515361972</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.706307994875273</v>
+        <v>8.916740261613732</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.735048765625219</v>
+        <v>1.307422259482036</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.375505243428762</v>
+        <v>4.113455121175594</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.759733040940617</v>
+        <v>10.27887828442216</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.166759335993742</v>
+        <v>6.340198011282842</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.770779487212825</v>
+        <v>3.038092704866119</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.02678863937533</v>
+        <v>6.378179884582001</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.888153086738876</v>
+        <v>3.289279728430226</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.840963963927275</v>
+        <v>6.857284753205231</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.531277533200504</v>
+        <v>4.092198706656666</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.56600207722379</v>
+        <v>3.32035270797131</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.456594278679881</v>
+        <v>6.244862026182313</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.942174309203111</v>
+        <v>3.729911948811385</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.898595640612477</v>
+        <v>2.313175501922606</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.018589039491569</v>
+        <v>1.816451288598379</v>
       </c>
       <c r="AV15" t="n">
-        <v>4.992225334188483</v>
+        <v>4.066332647822682</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.709346092548211</v>
+        <v>2.551999345988059</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.913067758765521</v>
+        <v>3.136019151763882</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.30111960670984</v>
+        <v>10.55687420753469</v>
       </c>
       <c r="D16" t="n">
-        <v>12.76111273280724</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>11.32912567919439</v>
+        <v>35.33811849980226</v>
       </c>
       <c r="F16" t="n">
-        <v>29.44320299245291</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.594805621903266</v>
+        <v>4.739921636273444</v>
       </c>
       <c r="H16" t="n">
-        <v>37.02597526288903</v>
+        <v>56.99099358495347</v>
       </c>
       <c r="I16" t="n">
-        <v>33.08535554074417</v>
+        <v>40.03554780768434</v>
       </c>
       <c r="J16" t="n">
-        <v>163.9290478353138</v>
+        <v>143.819769213776</v>
       </c>
       <c r="K16" t="n">
-        <v>36.30996692586079</v>
+        <v>69.69203821359581</v>
       </c>
       <c r="L16" t="n">
-        <v>47.42652171295097</v>
+        <v>142.3147415247177</v>
       </c>
       <c r="M16" t="n">
-        <v>55.28856825400655</v>
+        <v>48.09915463987042</v>
       </c>
       <c r="N16" t="n">
-        <v>42.99773071747512</v>
+        <v>56.30001371709927</v>
       </c>
       <c r="O16" t="n">
-        <v>10.45693029779584</v>
+        <v>17.22352854858436</v>
       </c>
       <c r="P16" t="n">
-        <v>25.88241830587983</v>
+        <v>171.3908423269242</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.34006631934388</v>
+        <v>62.45013195860378</v>
       </c>
       <c r="R16" t="n">
-        <v>35.41196649912317</v>
+        <v>29.74836924042628</v>
       </c>
       <c r="S16" t="n">
-        <v>67.04989800493179</v>
+        <v>104.0246859974536</v>
       </c>
       <c r="T16" t="n">
-        <v>74.77229092732102</v>
+        <v>82.90368875187507</v>
       </c>
       <c r="U16" t="n">
-        <v>47.13139768705958</v>
+        <v>151.3679325440583</v>
       </c>
       <c r="V16" t="n">
-        <v>56.98555122473524</v>
+        <v>347.022007967572</v>
       </c>
       <c r="W16" t="n">
-        <v>109.8816773435073</v>
+        <v>67.66930821640447</v>
       </c>
       <c r="X16" t="n">
-        <v>65.63237167131547</v>
+        <v>61.88383729912721</v>
       </c>
       <c r="Y16" t="n">
-        <v>95.74679674679051</v>
+        <v>57.19756855967673</v>
       </c>
       <c r="Z16" t="n">
-        <v>102.4458036553161</v>
+        <v>62.78421669747829</v>
       </c>
       <c r="AA16" t="n">
-        <v>97.34782126121523</v>
+        <v>81.56141669792913</v>
       </c>
       <c r="AB16" t="n">
-        <v>64.08444679043761</v>
+        <v>62.03922157261523</v>
       </c>
       <c r="AC16" t="n">
-        <v>52.34893100072374</v>
+        <v>66.23042140637061</v>
       </c>
       <c r="AD16" t="n">
-        <v>104.3826369870283</v>
+        <v>105.7993275478437</v>
       </c>
       <c r="AE16" t="n">
-        <v>120.132569596968</v>
+        <v>90.16339771222272</v>
       </c>
       <c r="AF16" t="n">
-        <v>91.37748201194529</v>
+        <v>45.88844633725905</v>
       </c>
       <c r="AG16" t="n">
-        <v>69.71273005927866</v>
+        <v>74.87661099489803</v>
       </c>
       <c r="AH16" t="n">
-        <v>41.56069108958325</v>
+        <v>59.81635463713241</v>
       </c>
       <c r="AI16" t="n">
-        <v>125.7951088356908</v>
+        <v>86.94351154125174</v>
       </c>
       <c r="AJ16" t="n">
-        <v>109.270414123093</v>
+        <v>45.60316383254884</v>
       </c>
       <c r="AK16" t="n">
-        <v>74.08558680981496</v>
+        <v>29.50313829429609</v>
       </c>
       <c r="AL16" t="n">
-        <v>38.59478323800028</v>
+        <v>67.88416820228713</v>
       </c>
       <c r="AM16" t="n">
-        <v>22.44057038130081</v>
+        <v>27.68749784197746</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.291457379105097</v>
+        <v>20.04454228884586</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.91949147891874</v>
+        <v>25.24490109569035</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.544045882369701</v>
+        <v>17.34107270057678</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19.98876906323381</v>
+        <v>6.165674716845479</v>
       </c>
       <c r="AR16" t="n">
-        <v>18.79595166801136</v>
+        <v>17.45005435473128</v>
       </c>
       <c r="AS16" t="n">
-        <v>19.63067454700778</v>
+        <v>17.64450231862473</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.552003665328074</v>
+        <v>10.59389299928033</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.08964486214243</v>
+        <v>11.50408582256474</v>
       </c>
       <c r="AV16" t="n">
-        <v>7.328915852593716</v>
+        <v>5.151613210059476</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.078898303122481</v>
+        <v>18.73013369898085</v>
       </c>
       <c r="AX16" t="n">
-        <v>12.57394177344223</v>
+        <v>30.14946046106634</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>33.60488818606571</v>
+        <v>20.71231798993257</v>
       </c>
       <c r="D17" t="n">
-        <v>6.272991313529647</v>
+        <v>19.13166930075432</v>
       </c>
       <c r="E17" t="n">
-        <v>1.672390470155086</v>
+        <v>0.716643338755401</v>
       </c>
       <c r="F17" t="n">
-        <v>70.97370373269607</v>
+        <v>64.81942527748664</v>
       </c>
       <c r="G17" t="n">
-        <v>65.71309035177194</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22.97221636977496</v>
+        <v>52.34393909153146</v>
       </c>
       <c r="I17" t="n">
-        <v>42.44283382258409</v>
+        <v>28.02842432344055</v>
       </c>
       <c r="J17" t="n">
-        <v>6.977414904380211</v>
+        <v>77.70822727105178</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>16.90683539687294</v>
       </c>
       <c r="L17" t="n">
-        <v>16.68654618454686</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>47.90524212803896</v>
+        <v>14.26131050971156</v>
       </c>
       <c r="N17" t="n">
-        <v>109.7994009731523</v>
+        <v>30.40739026698249</v>
       </c>
       <c r="O17" t="n">
-        <v>52.14336191048282</v>
+        <v>120.6444576387477</v>
       </c>
       <c r="P17" t="n">
-        <v>196.5112548225196</v>
+        <v>20.12522399502724</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.83472533518463</v>
+        <v>27.59986730485041</v>
       </c>
       <c r="R17" t="n">
-        <v>28.80156344062319</v>
+        <v>27.44230276645624</v>
       </c>
       <c r="S17" t="n">
-        <v>43.72971661777463</v>
+        <v>24.17044236312799</v>
       </c>
       <c r="T17" t="n">
-        <v>106.8925567789659</v>
+        <v>75.49586382387319</v>
       </c>
       <c r="U17" t="n">
-        <v>70.91312793524192</v>
+        <v>60.47135950083889</v>
       </c>
       <c r="V17" t="n">
-        <v>79.96259348152742</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>59.91159661665915</v>
+        <v>78.26844433518336</v>
       </c>
       <c r="X17" t="n">
-        <v>98.19299565369781</v>
+        <v>38.38201680196286</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.55761332682283</v>
+        <v>30.86673969537723</v>
       </c>
       <c r="Z17" t="n">
-        <v>41.97837898580649</v>
+        <v>40.04248046163207</v>
       </c>
       <c r="AA17" t="n">
-        <v>17.28693074433385</v>
+        <v>45.80099873043898</v>
       </c>
       <c r="AB17" t="n">
-        <v>47.30792888185334</v>
+        <v>84.58464486008914</v>
       </c>
       <c r="AC17" t="n">
-        <v>21.70310231751917</v>
+        <v>4.186098684292569</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.604393931249513</v>
+        <v>64.01542908171288</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.86424159389696</v>
+        <v>42.60050355624252</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.34035004488842</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>29.60897074810087</v>
+        <v>4.567950529070814</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5240181343043</v>
+        <v>30.34412054619877</v>
       </c>
       <c r="AI17" t="n">
-        <v>28.33918072999527</v>
+        <v>16.99012407869644</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19.07159244490245</v>
+        <v>35.92344552697529</v>
       </c>
       <c r="AK17" t="n">
-        <v>18.07445530960023</v>
+        <v>87.25975155262124</v>
       </c>
       <c r="AL17" t="n">
-        <v>18.72440871792311</v>
+        <v>7.763535292096035</v>
       </c>
       <c r="AM17" t="n">
-        <v>25.51802373680332</v>
+        <v>17.68694436159772</v>
       </c>
       <c r="AN17" t="n">
-        <v>11.64973481017384</v>
+        <v>5.073332446633831</v>
       </c>
       <c r="AO17" t="n">
-        <v>20.22042296675441</v>
+        <v>15.24308965607801</v>
       </c>
       <c r="AP17" t="n">
-        <v>26.96224358123</v>
+        <v>21.02106912044034</v>
       </c>
       <c r="AQ17" t="n">
-        <v>31.00297498946368</v>
+        <v>1.739490323654519</v>
       </c>
       <c r="AR17" t="n">
-        <v>10.04891346440076</v>
+        <v>2.132981887375305</v>
       </c>
       <c r="AS17" t="n">
-        <v>20.79666721388764</v>
+        <v>30.0172525891288</v>
       </c>
       <c r="AT17" t="n">
-        <v>43.60225759336582</v>
+        <v>22.68316622204354</v>
       </c>
       <c r="AU17" t="n">
-        <v>16.02224350711413</v>
+        <v>19.38830432540446</v>
       </c>
       <c r="AV17" t="n">
-        <v>9.674509218806026</v>
+        <v>31.15388672339861</v>
       </c>
       <c r="AW17" t="n">
-        <v>25.97078263480746</v>
+        <v>13.91870826219414</v>
       </c>
       <c r="AX17" t="n">
-        <v>37.90765795738577</v>
+        <v>21.04408794121033</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>10.37358063505314</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.505355527547192</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.441194676944615</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.406835308492149</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.230724024530248</v>
+        <v>54.94850927340864</v>
       </c>
       <c r="H18" t="n">
-        <v>6.859142245290506</v>
+        <v>67.73559728089322</v>
       </c>
       <c r="I18" t="n">
-        <v>16.65877281247657</v>
+        <v>6.72956604645152</v>
       </c>
       <c r="J18" t="n">
-        <v>50.6717876767147</v>
+        <v>22.03020913296536</v>
       </c>
       <c r="K18" t="n">
-        <v>18.166551410641</v>
+        <v>22.92286980626357</v>
       </c>
       <c r="L18" t="n">
-        <v>6.079009784843044</v>
+        <v>9.085346590827362</v>
       </c>
       <c r="M18" t="n">
-        <v>12.30097004315117</v>
+        <v>19.65859699128118</v>
       </c>
       <c r="N18" t="n">
-        <v>5.839088479753844</v>
+        <v>49.52922225804074</v>
       </c>
       <c r="O18" t="n">
-        <v>25.34623726090742</v>
+        <v>38.17786392712322</v>
       </c>
       <c r="P18" t="n">
-        <v>53.00024546658591</v>
+        <v>20.10884042081597</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.484921345522314</v>
+        <v>39.93001909582001</v>
       </c>
       <c r="R18" t="n">
-        <v>29.05300805438821</v>
+        <v>48.47316660669669</v>
       </c>
       <c r="S18" t="n">
-        <v>44.50249647171108</v>
+        <v>39.28784948890659</v>
       </c>
       <c r="T18" t="n">
-        <v>5.49823911048441</v>
+        <v>60.93226588245599</v>
       </c>
       <c r="U18" t="n">
-        <v>18.07452828383428</v>
+        <v>17.70766463792025</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>18.644319400573</v>
       </c>
       <c r="W18" t="n">
-        <v>20.87750393417134</v>
+        <v>27.29084511372516</v>
       </c>
       <c r="X18" t="n">
-        <v>19.71617976211695</v>
+        <v>4.615520426491436</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.94164178644928</v>
+        <v>34.29897863419309</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.73842690477872</v>
+        <v>23.71537026109965</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.02234262795711</v>
+        <v>15.24447482104483</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.33167234221957</v>
+        <v>35.3455267290983</v>
       </c>
       <c r="AC18" t="n">
-        <v>24.54972563812474</v>
+        <v>16.89856316726407</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.2432836762319</v>
+        <v>15.27280037513447</v>
       </c>
       <c r="AE18" t="n">
-        <v>23.66419237057185</v>
+        <v>19.87088434256706</v>
       </c>
       <c r="AF18" t="n">
-        <v>20.63610046012932</v>
+        <v>12.72900404355947</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.499716409330681</v>
+        <v>9.243467239792698</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.28766946957499</v>
+        <v>10.34304561035519</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.4056901631323</v>
+        <v>23.36853026512865</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.250205460661205</v>
+        <v>14.49056959859718</v>
       </c>
       <c r="AK18" t="n">
-        <v>9.899440078549404</v>
+        <v>7.133745062297971</v>
       </c>
       <c r="AL18" t="n">
-        <v>3.709878848022059</v>
+        <v>5.603473357267731</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.363906264893519</v>
+        <v>3.193840543142251</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.342746278870274</v>
+        <v>4.382170279348507</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.607234144786362</v>
+        <v>4.64047896358829</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.984075109621861</v>
+        <v>3.738447230702396</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.504139910893463</v>
+        <v>2.461340975202893</v>
       </c>
       <c r="AR18" t="n">
-        <v>7.496920773885228</v>
+        <v>0.8939431025070723</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.309531989943971</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>5.796978478580966</v>
+        <v>1.87487803662911</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.766733198804004</v>
+        <v>4.38156270451643</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.81464338593457</v>
+        <v>1.347862098154487</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.004940982713014</v>
+        <v>6.339765417063744</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.977599206556678</v>
+        <v>3.910496924815388</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>17.96737889005452</v>
+        <v>10.79146381455982</v>
       </c>
       <c r="D19" t="n">
-        <v>24.22990760529864</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.647393874963909</v>
+        <v>4.4428689231775</v>
       </c>
       <c r="F19" t="n">
-        <v>18.97250681806215</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>21.37955015947907</v>
+        <v>8.33676285521846</v>
       </c>
       <c r="H19" t="n">
-        <v>10.66204454124136</v>
+        <v>16.24366847514138</v>
       </c>
       <c r="I19" t="n">
-        <v>8.514732339169765</v>
+        <v>64.32114050879045</v>
       </c>
       <c r="J19" t="n">
-        <v>13.59840042728716</v>
+        <v>22.76908160091426</v>
       </c>
       <c r="K19" t="n">
-        <v>10.65163451602454</v>
+        <v>18.15510592748636</v>
       </c>
       <c r="L19" t="n">
-        <v>21.34000187748384</v>
+        <v>31.68042388470732</v>
       </c>
       <c r="M19" t="n">
-        <v>12.28688992541608</v>
+        <v>56.27908834116106</v>
       </c>
       <c r="N19" t="n">
-        <v>16.63193726098124</v>
+        <v>20.20660489533327</v>
       </c>
       <c r="O19" t="n">
-        <v>21.27350793690939</v>
+        <v>22.79083560302267</v>
       </c>
       <c r="P19" t="n">
-        <v>41.75740186023314</v>
+        <v>44.54057675271522</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>19.65448744927835</v>
       </c>
       <c r="R19" t="n">
-        <v>49.8102595586639</v>
+        <v>116.9228074791674</v>
       </c>
       <c r="S19" t="n">
-        <v>49.86568043713173</v>
+        <v>23.35947900646207</v>
       </c>
       <c r="T19" t="n">
-        <v>33.74120238181985</v>
+        <v>6.177555248946228</v>
       </c>
       <c r="U19" t="n">
-        <v>67.83507490320277</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>30.12379978812899</v>
+        <v>37.03511799299579</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>17.15203839226201</v>
       </c>
       <c r="X19" t="n">
-        <v>20.17643390730913</v>
+        <v>28.228863196577</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.59166496247433</v>
+        <v>21.48203061255005</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.291275955312894</v>
+        <v>30.35576568927027</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>24.22840963727718</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.38454733476462</v>
+        <v>5.621804214887971</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.10576018895118</v>
+        <v>48.28432303769871</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.255027812598519</v>
+        <v>35.12063595868297</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.473710856810269</v>
+        <v>17.118889776613</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.74040949946352</v>
+        <v>9.294253058276105</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.60518672837534</v>
+        <v>7.079686044539424</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.627761339930847</v>
+        <v>16.77398739813233</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.812922291667335</v>
+        <v>8.940128917559365</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.081092418359461</v>
+        <v>42.6000476728172</v>
       </c>
       <c r="AK19" t="n">
-        <v>9.548876858439145</v>
+        <v>5.979820592959674</v>
       </c>
       <c r="AL19" t="n">
-        <v>5.671649384448167</v>
+        <v>0.9684006981633382</v>
       </c>
       <c r="AM19" t="n">
-        <v>18.92577742719421</v>
+        <v>9.367347782963355</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.11490044592495</v>
+        <v>3.851920278509442</v>
       </c>
       <c r="AO19" t="n">
-        <v>73.48556612416297</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>7.310280195535484</v>
+        <v>4.951043593591114</v>
       </c>
       <c r="AQ19" t="n">
-        <v>16.50620530626214</v>
+        <v>3.453416594101375</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>7.236853738450517</v>
       </c>
       <c r="AS19" t="n">
-        <v>17.14036132266675</v>
+        <v>2.626183445905729</v>
       </c>
       <c r="AT19" t="n">
-        <v>15.67538815703967</v>
+        <v>8.107588800918846</v>
       </c>
       <c r="AU19" t="n">
-        <v>13.34418730146205</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>5.121682246838612</v>
       </c>
       <c r="AW19" t="n">
-        <v>21.29893877527062</v>
+        <v>58.41772443850932</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.567500341099614</v>
+        <v>4.60409994144079</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.32260561574351</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>21.149306271148</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>14.02669376516319</v>
+        <v>21.32868499012159</v>
       </c>
       <c r="F20" t="n">
-        <v>41.49808914957523</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>120.1731301685217</v>
+        <v>0.198991999251902</v>
       </c>
       <c r="H20" t="n">
-        <v>33.16285471152584</v>
+        <v>22.36813725926494</v>
       </c>
       <c r="I20" t="n">
-        <v>2.970341535829853</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>82.31377350832535</v>
+        <v>62.07166015610665</v>
       </c>
       <c r="K20" t="n">
-        <v>53.13261374504116</v>
+        <v>41.2742990068984</v>
       </c>
       <c r="L20" t="n">
-        <v>184.123524838313</v>
+        <v>60.35573794060164</v>
       </c>
       <c r="M20" t="n">
-        <v>43.33428659454115</v>
+        <v>75.40912685282913</v>
       </c>
       <c r="N20" t="n">
-        <v>22.74461960775339</v>
+        <v>5.467543721050994</v>
       </c>
       <c r="O20" t="n">
-        <v>65.21583922482067</v>
+        <v>9.234676236305839</v>
       </c>
       <c r="P20" t="n">
-        <v>89.66712137263795</v>
+        <v>82.06784785169977</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.38584745225047</v>
+        <v>76.00877268734214</v>
       </c>
       <c r="R20" t="n">
-        <v>64.84877809640486</v>
+        <v>45.41084708767081</v>
       </c>
       <c r="S20" t="n">
-        <v>42.60255410519181</v>
+        <v>48.68244592456664</v>
       </c>
       <c r="T20" t="n">
-        <v>75.20602873334849</v>
+        <v>59.54129894140636</v>
       </c>
       <c r="U20" t="n">
-        <v>26.15639251305807</v>
+        <v>39.17150520116725</v>
       </c>
       <c r="V20" t="n">
-        <v>24.7581600303357</v>
+        <v>103.0729150620043</v>
       </c>
       <c r="W20" t="n">
-        <v>128.5152080012785</v>
+        <v>39.40324773033197</v>
       </c>
       <c r="X20" t="n">
-        <v>37.90922901712718</v>
+        <v>35.16771613131183</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.66687789685716</v>
+        <v>55.98357742766703</v>
       </c>
       <c r="Z20" t="n">
-        <v>35.76798064977991</v>
+        <v>54.29235908048048</v>
       </c>
       <c r="AA20" t="n">
-        <v>106.6191541623703</v>
+        <v>80.25953883681854</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.67153192277277</v>
+        <v>101.0197718839486</v>
       </c>
       <c r="AC20" t="n">
-        <v>102.710942485081</v>
+        <v>41.87023501622522</v>
       </c>
       <c r="AD20" t="n">
-        <v>113.2179695710783</v>
+        <v>77.81116594035451</v>
       </c>
       <c r="AE20" t="n">
-        <v>99.62891186376334</v>
+        <v>121.5938452366307</v>
       </c>
       <c r="AF20" t="n">
-        <v>40.58475155187217</v>
+        <v>132.559969310221</v>
       </c>
       <c r="AG20" t="n">
-        <v>83.14590505039524</v>
+        <v>140.4709473390294</v>
       </c>
       <c r="AH20" t="n">
-        <v>100.3663939385829</v>
+        <v>92.24343480197302</v>
       </c>
       <c r="AI20" t="n">
-        <v>139.3765785302567</v>
+        <v>99.83088668784276</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65.69363756846263</v>
+        <v>59.39959415796571</v>
       </c>
       <c r="AK20" t="n">
-        <v>43.47837229579312</v>
+        <v>67.47180392047727</v>
       </c>
       <c r="AL20" t="n">
-        <v>31.54052093333065</v>
+        <v>56.99711777634646</v>
       </c>
       <c r="AM20" t="n">
-        <v>67.31477960030678</v>
+        <v>33.12719189815519</v>
       </c>
       <c r="AN20" t="n">
-        <v>43.17302225759525</v>
+        <v>41.47748477565179</v>
       </c>
       <c r="AO20" t="n">
-        <v>30.30889564992842</v>
+        <v>43.81269294657432</v>
       </c>
       <c r="AP20" t="n">
-        <v>20.64226947061326</v>
+        <v>23.9555097038659</v>
       </c>
       <c r="AQ20" t="n">
-        <v>36.7878501145914</v>
+        <v>13.45211134782421</v>
       </c>
       <c r="AR20" t="n">
-        <v>28.4158327012052</v>
+        <v>4.944876240546255</v>
       </c>
       <c r="AS20" t="n">
-        <v>17.56559637940316</v>
+        <v>10.19939541163316</v>
       </c>
       <c r="AT20" t="n">
-        <v>25.72141438572551</v>
+        <v>23.35209297283826</v>
       </c>
       <c r="AU20" t="n">
-        <v>19.09159847115362</v>
+        <v>24.14219023531638</v>
       </c>
       <c r="AV20" t="n">
-        <v>27.57903597919544</v>
+        <v>13.03179481818599</v>
       </c>
       <c r="AW20" t="n">
-        <v>22.179140177696</v>
+        <v>18.39865113329919</v>
       </c>
       <c r="AX20" t="n">
-        <v>20.65394215705905</v>
+        <v>30.09095604358689</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.956580340082733</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1092989270642973</v>
+        <v>2.906300571046208</v>
       </c>
       <c r="F21" t="n">
-        <v>5.102147868106005</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.269129545303542</v>
+        <v>2.679973266997274</v>
       </c>
       <c r="H21" t="n">
-        <v>2.032626191960576</v>
+        <v>0.1205989468249943</v>
       </c>
       <c r="I21" t="n">
-        <v>2.122491654700109</v>
+        <v>2.163270583895818</v>
       </c>
       <c r="J21" t="n">
-        <v>4.575497287309913</v>
+        <v>2.829032131658314</v>
       </c>
       <c r="K21" t="n">
-        <v>1.36604107666295</v>
+        <v>1.987194808790694</v>
       </c>
       <c r="L21" t="n">
-        <v>3.413496649274954</v>
+        <v>3.21883977937004</v>
       </c>
       <c r="M21" t="n">
-        <v>20.99776254684695</v>
+        <v>1.082193336024592</v>
       </c>
       <c r="N21" t="n">
-        <v>6.741048538089275</v>
+        <v>1.827956857877018</v>
       </c>
       <c r="O21" t="n">
-        <v>11.80678157637825</v>
+        <v>5.514517991464096</v>
       </c>
       <c r="P21" t="n">
-        <v>2.768743957432313</v>
+        <v>1.788862185687151</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.995204128018307</v>
+        <v>12.92762745430425</v>
       </c>
       <c r="R21" t="n">
-        <v>5.029429678067054</v>
+        <v>2.619943889585219</v>
       </c>
       <c r="S21" t="n">
-        <v>6.467680317969246</v>
+        <v>6.323637565642368</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7545589047140465</v>
+        <v>5.872354718565012</v>
       </c>
       <c r="U21" t="n">
-        <v>1.949690958653131</v>
+        <v>2.40453829942466</v>
       </c>
       <c r="V21" t="n">
-        <v>0.644520982401833</v>
+        <v>2.283738950770715</v>
       </c>
       <c r="W21" t="n">
-        <v>2.448808168960769</v>
+        <v>6.12229213668204</v>
       </c>
       <c r="X21" t="n">
-        <v>4.711208076113468</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.841367905316645</v>
+        <v>1.754934203131465</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.292520389999773</v>
+        <v>6.02240120488754</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.292795585008628</v>
+        <v>1.452608187297667</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.102738748066782</v>
+        <v>5.781470610573251</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.588922791841715</v>
+        <v>4.261128672303158</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.235486936361867</v>
+        <v>3.977231051033502</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.978103163691421</v>
+        <v>5.325476179751414</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.590150021301842</v>
+        <v>6.416619305701506</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.556690108003774</v>
+        <v>1.219235122140474</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.206620156879993</v>
+        <v>6.104048344953982</v>
       </c>
       <c r="AI21" t="n">
-        <v>10.22831402101353</v>
+        <v>7.134165766238334</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.468978645489059</v>
+        <v>2.687631237840619</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.828293420632585</v>
+        <v>4.422877212383094</v>
       </c>
       <c r="AL21" t="n">
-        <v>7.005161788448131</v>
+        <v>5.511638284366765</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.958199032797377</v>
+        <v>4.598564645305262</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.289322512853142</v>
+        <v>4.967709560549019</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.079905207513732</v>
+        <v>2.486936994989294</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.440470037167072</v>
+        <v>3.358734970912957</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.924577935352522</v>
+        <v>10.27423363619419</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.910088934489466</v>
+        <v>4.007013964384424</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.13625675925363</v>
+        <v>1.222582518787708</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.179920449811688</v>
+        <v>1.715292211543443</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.964773518815628</v>
+        <v>2.515237942616455</v>
       </c>
       <c r="AV21" t="n">
-        <v>7.756691805400992</v>
+        <v>3.797872983294096</v>
       </c>
       <c r="AW21" t="n">
-        <v>11.05625419431029</v>
+        <v>1.075348340486641</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>1.832378050975818</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>12.17101274627753</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6.253046314719</v>
+        <v>33.72780941205088</v>
       </c>
       <c r="E22" t="n">
-        <v>4.004149043585188</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.613675559495076</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.460257963438134</v>
+        <v>16.85549445397406</v>
       </c>
       <c r="I22" t="n">
-        <v>144.4195144734096</v>
+        <v>4.941398184433364</v>
       </c>
       <c r="J22" t="n">
-        <v>31.63656963804083</v>
+        <v>76.60176056927813</v>
       </c>
       <c r="K22" t="n">
-        <v>97.13489354254598</v>
+        <v>99.56998215502635</v>
       </c>
       <c r="L22" t="n">
-        <v>31.15839412214231</v>
+        <v>69.75479436881295</v>
       </c>
       <c r="M22" t="n">
-        <v>10.85785081538643</v>
+        <v>48.63562085836911</v>
       </c>
       <c r="N22" t="n">
-        <v>45.74025143001651</v>
+        <v>37.63102139087814</v>
       </c>
       <c r="O22" t="n">
-        <v>26.31642844719158</v>
+        <v>105.54293685623</v>
       </c>
       <c r="P22" t="n">
-        <v>79.08473358181541</v>
+        <v>100.1777510404809</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.33323065595823</v>
+        <v>46.86570761976563</v>
       </c>
       <c r="R22" t="n">
-        <v>44.87525651117316</v>
+        <v>20.12653247847628</v>
       </c>
       <c r="S22" t="n">
-        <v>92.67904826394852</v>
+        <v>24.23234145867465</v>
       </c>
       <c r="T22" t="n">
-        <v>79.56388338511847</v>
+        <v>95.50892505407273</v>
       </c>
       <c r="U22" t="n">
-        <v>48.41040828571258</v>
+        <v>73.67431746195882</v>
       </c>
       <c r="V22" t="n">
-        <v>52.10790516999289</v>
+        <v>164.3686616428593</v>
       </c>
       <c r="W22" t="n">
-        <v>22.22188754120697</v>
+        <v>19.31046376041852</v>
       </c>
       <c r="X22" t="n">
-        <v>29.85604369008065</v>
+        <v>96.92147925649634</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.38104707392596</v>
+        <v>97.41669065556736</v>
       </c>
       <c r="Z22" t="n">
-        <v>45.77899331060828</v>
+        <v>38.71338715385077</v>
       </c>
       <c r="AA22" t="n">
-        <v>51.9590580176308</v>
+        <v>51.86682479519649</v>
       </c>
       <c r="AB22" t="n">
-        <v>32.78603717379912</v>
+        <v>107.8188294892914</v>
       </c>
       <c r="AC22" t="n">
-        <v>114.427087264786</v>
+        <v>60.85660547039997</v>
       </c>
       <c r="AD22" t="n">
-        <v>90.92750625884973</v>
+        <v>60.16956866661482</v>
       </c>
       <c r="AE22" t="n">
-        <v>96.71147000612815</v>
+        <v>91.91489103417686</v>
       </c>
       <c r="AF22" t="n">
-        <v>102.2099694071271</v>
+        <v>64.47754655219514</v>
       </c>
       <c r="AG22" t="n">
-        <v>102.9052701526546</v>
+        <v>45.034681167088</v>
       </c>
       <c r="AH22" t="n">
-        <v>70.02555211748492</v>
+        <v>69.83425333971128</v>
       </c>
       <c r="AI22" t="n">
-        <v>32.0941375793689</v>
+        <v>108.3249892458227</v>
       </c>
       <c r="AJ22" t="n">
-        <v>67.53265893657758</v>
+        <v>20.3063725042219</v>
       </c>
       <c r="AK22" t="n">
-        <v>76.38448944793907</v>
+        <v>32.50905356294375</v>
       </c>
       <c r="AL22" t="n">
-        <v>36.12196753611607</v>
+        <v>35.56305412552699</v>
       </c>
       <c r="AM22" t="n">
-        <v>8.961043074847977</v>
+        <v>19.98322415404267</v>
       </c>
       <c r="AN22" t="n">
-        <v>13.40052101074713</v>
+        <v>12.28791995243267</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.38612279163437</v>
+        <v>17.49240257196458</v>
       </c>
       <c r="AP22" t="n">
-        <v>22.38273266708498</v>
+        <v>23.53966335617649</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9.366677818769517</v>
+        <v>15.55634535848917</v>
       </c>
       <c r="AR22" t="n">
-        <v>14.89382652347551</v>
+        <v>19.11441430116624</v>
       </c>
       <c r="AS22" t="n">
-        <v>26.35414288013977</v>
+        <v>32.51752288689748</v>
       </c>
       <c r="AT22" t="n">
-        <v>8.231773736933421</v>
+        <v>14.02041204503891</v>
       </c>
       <c r="AU22" t="n">
-        <v>11.3589493938005</v>
+        <v>4.263863343783811</v>
       </c>
       <c r="AV22" t="n">
-        <v>8.306236054019479</v>
+        <v>16.70154070415583</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.152374235405421</v>
+        <v>10.65442712171396</v>
       </c>
       <c r="AX22" t="n">
-        <v>12.33164050781171</v>
+        <v>9.664461763181873</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>5.423812112323215</v>
+        <v>9.323367197775973</v>
       </c>
       <c r="D23" t="n">
-        <v>6.261719310327591</v>
+        <v>5.02006496533863</v>
       </c>
       <c r="E23" t="n">
-        <v>3.783706750098947</v>
+        <v>21.80448308123792</v>
       </c>
       <c r="F23" t="n">
-        <v>15.06137771326634</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>10.17479677633592</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>17.4007117167401</v>
+        <v>104.6582813041328</v>
       </c>
       <c r="I23" t="n">
-        <v>90.24242675895506</v>
+        <v>16.75957517162842</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>93.99904999754187</v>
+        <v>17.18022085403609</v>
       </c>
       <c r="L23" t="n">
-        <v>117.8974171011013</v>
+        <v>85.72694934929785</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>26.49891735908218</v>
       </c>
       <c r="N23" t="n">
-        <v>37.35616766106698</v>
+        <v>228.0171946157888</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5212880167678797</v>
+        <v>14.09613923388058</v>
       </c>
       <c r="P23" t="n">
-        <v>118.8318460727534</v>
+        <v>76.99855758250959</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.42423640202462</v>
+        <v>14.75495695491464</v>
       </c>
       <c r="R23" t="n">
-        <v>2.415020965328122</v>
+        <v>3.121105236030594</v>
       </c>
       <c r="S23" t="n">
-        <v>46.70656412454581</v>
+        <v>50.44573350565836</v>
       </c>
       <c r="T23" t="n">
-        <v>49.09597406179745</v>
+        <v>225.5272656342855</v>
       </c>
       <c r="U23" t="n">
-        <v>37.04572153142901</v>
+        <v>68.61882725863896</v>
       </c>
       <c r="V23" t="n">
-        <v>41.27332282413714</v>
+        <v>49.9840859026344</v>
       </c>
       <c r="W23" t="n">
-        <v>38.79613345881309</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>54.68659219092195</v>
+        <v>146.881470727465</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.77152367635459</v>
+        <v>65.52288279703437</v>
       </c>
       <c r="Z23" t="n">
-        <v>36.38511099145997</v>
+        <v>49.40151430133952</v>
       </c>
       <c r="AA23" t="n">
-        <v>39.01453134094369</v>
+        <v>19.92167524772574</v>
       </c>
       <c r="AB23" t="n">
-        <v>65.77899463955387</v>
+        <v>25.95522387270351</v>
       </c>
       <c r="AC23" t="n">
-        <v>93.20810401624499</v>
+        <v>41.61027802396334</v>
       </c>
       <c r="AD23" t="n">
-        <v>47.51483062659899</v>
+        <v>84.69282745930022</v>
       </c>
       <c r="AE23" t="n">
-        <v>34.91453889642707</v>
+        <v>7.233475607778248</v>
       </c>
       <c r="AF23" t="n">
-        <v>51.55448427670554</v>
+        <v>23.20269350262618</v>
       </c>
       <c r="AG23" t="n">
-        <v>36.12326622183732</v>
+        <v>2.279468283009716</v>
       </c>
       <c r="AH23" t="n">
-        <v>11.75040821287838</v>
+        <v>44.13119654295352</v>
       </c>
       <c r="AI23" t="n">
-        <v>37.83497830191421</v>
+        <v>30.47867845306072</v>
       </c>
       <c r="AJ23" t="n">
-        <v>43.15653077935527</v>
+        <v>35.59229924224566</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.64390201170599</v>
+        <v>31.12093303414112</v>
       </c>
       <c r="AL23" t="n">
-        <v>33.72072427291204</v>
+        <v>13.68822645320347</v>
       </c>
       <c r="AM23" t="n">
-        <v>24.36054507747648</v>
+        <v>27.42064386776694</v>
       </c>
       <c r="AN23" t="n">
-        <v>25.15117758450291</v>
+        <v>37.11239563899198</v>
       </c>
       <c r="AO23" t="n">
-        <v>13.21943199740581</v>
+        <v>21.21063161681601</v>
       </c>
       <c r="AP23" t="n">
-        <v>12.49974492366492</v>
+        <v>17.10493303817517</v>
       </c>
       <c r="AQ23" t="n">
-        <v>17.51003142999547</v>
+        <v>28.13814749876842</v>
       </c>
       <c r="AR23" t="n">
-        <v>41.55914769902554</v>
+        <v>26.1722720951056</v>
       </c>
       <c r="AS23" t="n">
-        <v>25.94109478354031</v>
+        <v>29.71117663541981</v>
       </c>
       <c r="AT23" t="n">
-        <v>26.10672043794496</v>
+        <v>17.98490146039729</v>
       </c>
       <c r="AU23" t="n">
-        <v>42.33948282472937</v>
+        <v>31.21746379729251</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>31.20741122791454</v>
       </c>
       <c r="AW23" t="n">
-        <v>44.0154817806622</v>
+        <v>30.88105410402657</v>
       </c>
       <c r="AX23" t="n">
-        <v>26.83166963792167</v>
+        <v>4.240491526658883</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>5.727311386313406</v>
+        <v>7.024587657893868</v>
       </c>
       <c r="D24" t="n">
-        <v>6.105066181257618</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4.830447680035497</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>4.269900467494311</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>10.36755731604143</v>
+        <v>3.099224373975771</v>
       </c>
       <c r="H24" t="n">
-        <v>4.940152062656477</v>
+        <v>10.80399759601635</v>
       </c>
       <c r="I24" t="n">
-        <v>13.49615712764598</v>
+        <v>0.7689246028803534</v>
       </c>
       <c r="J24" t="n">
-        <v>33.29122512202824</v>
+        <v>8.780279073647137</v>
       </c>
       <c r="K24" t="n">
-        <v>22.43127897218179</v>
+        <v>7.515207178904975</v>
       </c>
       <c r="L24" t="n">
-        <v>14.5272743354618</v>
+        <v>16.57161844449893</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>10.11765064473629</v>
       </c>
       <c r="N24" t="n">
-        <v>61.73644647717504</v>
+        <v>38.97924320538078</v>
       </c>
       <c r="O24" t="n">
-        <v>44.65845673719112</v>
+        <v>25.42111982752591</v>
       </c>
       <c r="P24" t="n">
-        <v>26.21100072654358</v>
+        <v>21.61883355407803</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.3518858841623</v>
+        <v>19.17998115769357</v>
       </c>
       <c r="R24" t="n">
-        <v>12.59467364332217</v>
+        <v>26.27245034072671</v>
       </c>
       <c r="S24" t="n">
-        <v>36.13837949778014</v>
+        <v>14.57009271856449</v>
       </c>
       <c r="T24" t="n">
-        <v>23.13108249052318</v>
+        <v>11.37906579924377</v>
       </c>
       <c r="U24" t="n">
-        <v>27.62842538649099</v>
+        <v>20.64356171813098</v>
       </c>
       <c r="V24" t="n">
-        <v>3.97346546290169</v>
+        <v>28.83734245824078</v>
       </c>
       <c r="W24" t="n">
-        <v>7.762225763323072</v>
+        <v>18.73774191583616</v>
       </c>
       <c r="X24" t="n">
-        <v>29.81506243113675</v>
+        <v>23.48799501902381</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.80441403745025</v>
+        <v>21.31651765634036</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.980888800356631</v>
+        <v>56.89606627795664</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.73354338489411</v>
+        <v>19.99585311785457</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.33118023824226</v>
+        <v>24.13375638119689</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.74191577132167</v>
+        <v>43.7547485653939</v>
       </c>
       <c r="AD24" t="n">
-        <v>3.100180828947866</v>
+        <v>12.49739400915631</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.64347348127359</v>
+        <v>16.69250072235261</v>
       </c>
       <c r="AF24" t="n">
-        <v>21.82747585793626</v>
+        <v>8.24903642029774</v>
       </c>
       <c r="AG24" t="n">
-        <v>18.02825041936051</v>
+        <v>2.432657707289466</v>
       </c>
       <c r="AH24" t="n">
-        <v>5.171062225213072</v>
+        <v>6.832182335005658</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.769645318527645</v>
+        <v>6.986666043518301</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7.749641744548456</v>
+        <v>7.089585116162485</v>
       </c>
       <c r="AK24" t="n">
-        <v>10.33372913361937</v>
+        <v>7.32052461814184</v>
       </c>
       <c r="AL24" t="n">
-        <v>5.294892478264327</v>
+        <v>8.178853729579142</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.95317088130462</v>
+        <v>1.416862309305161</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.953075091429656</v>
+        <v>14.12444028050099</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.8540605034021469</v>
+        <v>1.091479159734284</v>
       </c>
       <c r="AP24" t="n">
-        <v>5.009199564528846</v>
+        <v>5.125564305987179</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.752771288562147</v>
+        <v>4.99390301601383</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.180688674449829</v>
+        <v>1.214903646909586</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.844897032889293</v>
+        <v>1.605437299447083</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.844746285402152</v>
+        <v>1.446310100578287</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.88764176845068</v>
+        <v>1.588589298892961</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.7097377861719701</v>
+        <v>3.238539529947336</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.541950860469356</v>
+        <v>1.845561822469103</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.5259842280578871</v>
+        <v>3.733024079192824</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.78985437352999</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.030360727291983</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.464724886377799</v>
+        <v>23.95790032443873</v>
       </c>
       <c r="F25" t="n">
-        <v>14.2682958326577</v>
+        <v>15.69466492493023</v>
       </c>
       <c r="G25" t="n">
-        <v>37.16438215838721</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>91.33370881513898</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>20.86589707215659</v>
+        <v>10.94005066179718</v>
       </c>
       <c r="J25" t="n">
-        <v>20.8508402951939</v>
+        <v>7.247054670636214</v>
       </c>
       <c r="K25" t="n">
-        <v>100.1274646131471</v>
+        <v>8.132948637307805</v>
       </c>
       <c r="L25" t="n">
-        <v>22.75214808967796</v>
+        <v>7.294205213062418</v>
       </c>
       <c r="M25" t="n">
-        <v>63.99390567681514</v>
+        <v>33.91819286798332</v>
       </c>
       <c r="N25" t="n">
-        <v>44.75568405906632</v>
+        <v>80.5873494962587</v>
       </c>
       <c r="O25" t="n">
-        <v>22.20501868852087</v>
+        <v>31.91306506722828</v>
       </c>
       <c r="P25" t="n">
-        <v>59.57724736653301</v>
+        <v>21.15743973616888</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.73373076746131</v>
+        <v>2.46520713705763</v>
       </c>
       <c r="R25" t="n">
-        <v>78.71075777986638</v>
+        <v>27.98055833345019</v>
       </c>
       <c r="S25" t="n">
-        <v>48.38785091675653</v>
+        <v>32.96990236195922</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28445969419467</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>4.363395436496059</v>
+        <v>17.33499551385814</v>
       </c>
       <c r="V25" t="n">
-        <v>44.85336724691607</v>
+        <v>21.6570652418195</v>
       </c>
       <c r="W25" t="n">
-        <v>9.96892673469317</v>
+        <v>19.82774742342639</v>
       </c>
       <c r="X25" t="n">
-        <v>36.08486834246445</v>
+        <v>34.86952413087911</v>
       </c>
       <c r="Y25" t="n">
-        <v>23.5243890325841</v>
+        <v>8.4777220956977</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.51228994232398</v>
+        <v>2.647462359576973</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>24.43689349322527</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.5134014400286</v>
+        <v>12.91137148302505</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.104144777232675</v>
+        <v>3.986892845436608</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.58282398639542</v>
+        <v>35.06361832162062</v>
       </c>
       <c r="AE25" t="n">
-        <v>10.81826058044509</v>
+        <v>1.798025388781461</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.4403477694231674</v>
+        <v>5.262627159207028</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>7.119105084044664</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.911591536365975</v>
+        <v>1.841872043714038</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>5.590819074655391</v>
       </c>
       <c r="AJ25" t="n">
-        <v>42.8414353612208</v>
+        <v>0.05090891316751911</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.080523444442223</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>6.930028121372589</v>
+        <v>15.40204125457921</v>
       </c>
       <c r="AM25" t="n">
-        <v>5.937387862062625</v>
+        <v>4.883142763816877</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.429002690050734</v>
+        <v>5.909458460696492</v>
       </c>
       <c r="AO25" t="n">
-        <v>13.67035936387921</v>
+        <v>23.65651945288507</v>
       </c>
       <c r="AP25" t="n">
-        <v>10.797866825131</v>
+        <v>21.74881162331666</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15.48406697232565</v>
+        <v>1.690545170660379</v>
       </c>
       <c r="AR25" t="n">
-        <v>17.65689799137767</v>
+        <v>9.857755987234521</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>7.889817164806631</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.861436290498576</v>
+        <v>3.846889537360302</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>1.819265734771496</v>
       </c>
       <c r="AV25" t="n">
-        <v>21.0834783254744</v>
+        <v>11.59700440498499</v>
       </c>
       <c r="AW25" t="n">
-        <v>9.412687000555334</v>
+        <v>9.035805916513604</v>
       </c>
       <c r="AX25" t="n">
-        <v>22.17829782587866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4341,22 +4341,22 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.81722286782552</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>12.68477189964181</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.295906040947556</v>
+        <v>25.87884248279795</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>22.93179412398518</v>
+        <v>30.11279761652247</v>
       </c>
       <c r="H26" t="n">
-        <v>44.1549712552738</v>
+        <v>19.19742185241517</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -4365,124 +4365,124 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>35.15280491333289</v>
       </c>
       <c r="L26" t="n">
-        <v>70.27244434469632</v>
+        <v>88.6096898482961</v>
       </c>
       <c r="M26" t="n">
-        <v>66.93088521530747</v>
+        <v>26.47859563615857</v>
       </c>
       <c r="N26" t="n">
-        <v>103.5787018397809</v>
+        <v>61.93398920379009</v>
       </c>
       <c r="O26" t="n">
-        <v>84.7096311952631</v>
+        <v>84.56347816002022</v>
       </c>
       <c r="P26" t="n">
-        <v>23.35324551960925</v>
+        <v>61.03785889930559</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.90825090394519</v>
+        <v>105.5755186809829</v>
       </c>
       <c r="R26" t="n">
-        <v>103.8895748972756</v>
+        <v>70.77321586108798</v>
       </c>
       <c r="S26" t="n">
-        <v>48.80473481230301</v>
+        <v>60.50995174292642</v>
       </c>
       <c r="T26" t="n">
-        <v>37.75862061185614</v>
+        <v>77.45987570546828</v>
       </c>
       <c r="U26" t="n">
-        <v>98.55785757536395</v>
+        <v>38.40352912118826</v>
       </c>
       <c r="V26" t="n">
-        <v>48.20214094214028</v>
+        <v>92.38110021864188</v>
       </c>
       <c r="W26" t="n">
-        <v>97.04921648033432</v>
+        <v>59.04320169387414</v>
       </c>
       <c r="X26" t="n">
-        <v>106.7847600479288</v>
+        <v>87.37350065998484</v>
       </c>
       <c r="Y26" t="n">
-        <v>52.53201401502699</v>
+        <v>61.34041770424578</v>
       </c>
       <c r="Z26" t="n">
-        <v>61.7118591878607</v>
+        <v>127.294260134406</v>
       </c>
       <c r="AA26" t="n">
-        <v>122.6615966175629</v>
+        <v>59.56081033829939</v>
       </c>
       <c r="AB26" t="n">
-        <v>114.8974453502635</v>
+        <v>104.7181525797773</v>
       </c>
       <c r="AC26" t="n">
-        <v>52.24768600584723</v>
+        <v>99.84093777173314</v>
       </c>
       <c r="AD26" t="n">
-        <v>102.6493697144526</v>
+        <v>100.4768789317423</v>
       </c>
       <c r="AE26" t="n">
-        <v>147.3843427124628</v>
+        <v>49.07410229437772</v>
       </c>
       <c r="AF26" t="n">
-        <v>145.0545585551181</v>
+        <v>137.1919121414983</v>
       </c>
       <c r="AG26" t="n">
-        <v>59.35752392304413</v>
+        <v>127.1166507650541</v>
       </c>
       <c r="AH26" t="n">
-        <v>91.07962866169231</v>
+        <v>65.90064705690122</v>
       </c>
       <c r="AI26" t="n">
-        <v>115.8331356702788</v>
+        <v>72.450423991177</v>
       </c>
       <c r="AJ26" t="n">
-        <v>87.51785332165962</v>
+        <v>94.65599270734874</v>
       </c>
       <c r="AK26" t="n">
-        <v>68.34031228735202</v>
+        <v>25.49871885162775</v>
       </c>
       <c r="AL26" t="n">
-        <v>35.76653208143999</v>
+        <v>33.92900007019428</v>
       </c>
       <c r="AM26" t="n">
-        <v>49.80618148199992</v>
+        <v>47.99311087044629</v>
       </c>
       <c r="AN26" t="n">
-        <v>65.65023934545339</v>
+        <v>39.33303485974907</v>
       </c>
       <c r="AO26" t="n">
-        <v>41.59112145929926</v>
+        <v>85.26476391558245</v>
       </c>
       <c r="AP26" t="n">
-        <v>34.58160020343519</v>
+        <v>38.27179444361814</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19.84749254617542</v>
+        <v>25.46852482789195</v>
       </c>
       <c r="AR26" t="n">
-        <v>72.53415410702301</v>
+        <v>27.98799164254774</v>
       </c>
       <c r="AS26" t="n">
-        <v>13.40141672944937</v>
+        <v>24.44485782428596</v>
       </c>
       <c r="AT26" t="n">
-        <v>12.96660858035531</v>
+        <v>18.34507036769246</v>
       </c>
       <c r="AU26" t="n">
-        <v>15.21265738863195</v>
+        <v>28.85668326116165</v>
       </c>
       <c r="AV26" t="n">
-        <v>14.87048974408583</v>
+        <v>17.04301923239719</v>
       </c>
       <c r="AW26" t="n">
-        <v>15.47681375206453</v>
+        <v>23.75497910033025</v>
       </c>
       <c r="AX26" t="n">
-        <v>21.1960573572041</v>
+        <v>20.50378354787838</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>4.936588216903674</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.494550815488568</v>
+        <v>2.608488261527265</v>
       </c>
       <c r="E27" t="n">
-        <v>3.281456289303536</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.153657881753722</v>
+        <v>2.569260426361964</v>
       </c>
       <c r="G27" t="n">
-        <v>1.561025809131394</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7.344291469389014</v>
+        <v>0.4632673294201858</v>
       </c>
       <c r="I27" t="n">
-        <v>3.134639084126923</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.456219445423026</v>
+        <v>2.674679450150364</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8333784535074463</v>
+        <v>3.444344925669792</v>
       </c>
       <c r="L27" t="n">
-        <v>4.33029587890812</v>
+        <v>5.11959836893971</v>
       </c>
       <c r="M27" t="n">
-        <v>4.335075227753552</v>
+        <v>0.8281930355028896</v>
       </c>
       <c r="N27" t="n">
-        <v>4.436874431409211</v>
+        <v>1.205081127105107</v>
       </c>
       <c r="O27" t="n">
-        <v>6.751677948442177</v>
+        <v>5.606044047246672</v>
       </c>
       <c r="P27" t="n">
-        <v>1.657190765750843</v>
+        <v>7.01348633195863</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.650595740032053</v>
+        <v>4.623640135173305</v>
       </c>
       <c r="R27" t="n">
-        <v>4.337710356414861</v>
+        <v>2.617992191563376</v>
       </c>
       <c r="S27" t="n">
-        <v>6.004193788983683</v>
+        <v>7.445674948375134</v>
       </c>
       <c r="T27" t="n">
-        <v>1.21039438883823</v>
+        <v>1.432056068027707</v>
       </c>
       <c r="U27" t="n">
-        <v>3.292486280443694</v>
+        <v>2.820679374202456</v>
       </c>
       <c r="V27" t="n">
-        <v>4.187219094505958</v>
+        <v>0.5467529559275173</v>
       </c>
       <c r="W27" t="n">
-        <v>8.419612983666278</v>
+        <v>5.884778536981203</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5870369572552734</v>
+        <v>10.45250545128054</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.536197536621154</v>
+        <v>5.51638050663061</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.144083203525744</v>
+        <v>6.956105493731346</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.615856361126026</v>
+        <v>7.360869926812946</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.104531595224696</v>
+        <v>2.225879693522836</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.37737702066353</v>
+        <v>3.903614782973472</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.154165720825372</v>
+        <v>9.775037465372082</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.092406817153587</v>
+        <v>4.822062047476824</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.538542064275335</v>
+        <v>5.626205337758472</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.489731942817883</v>
+        <v>6.964690347364325</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.397608937667377</v>
+        <v>3.258687955943075</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.209537058570136</v>
+        <v>3.618324518152735</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.58538533354921</v>
+        <v>2.476512493129521</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.128358815880571</v>
+        <v>3.844073151969524</v>
       </c>
       <c r="AL27" t="n">
-        <v>7.453928751535546</v>
+        <v>2.490570251540324</v>
       </c>
       <c r="AM27" t="n">
-        <v>7.168342227103869</v>
+        <v>5.40349597094892</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.412691285837262</v>
+        <v>7.395052395759093</v>
       </c>
       <c r="AO27" t="n">
-        <v>2.777922660729299</v>
+        <v>3.83537688095445</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.921780091978803</v>
+        <v>3.237604956377241</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.953583908000445</v>
+        <v>5.32053045973294</v>
       </c>
       <c r="AR27" t="n">
-        <v>4.294716726148205</v>
+        <v>3.224423077665744</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.004759973889174</v>
+        <v>2.747192151395952</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.891172665462479</v>
+        <v>3.780914621242025</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.223115852278249</v>
+        <v>2.401848658945116</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.433461805367521</v>
+        <v>2.428452947998363</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.472809340183188</v>
+        <v>0.4927940838415021</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.134015069167484</v>
+        <v>2.11699477931984</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>14.70780486332498</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.027186431724408</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>8.48179562451786</v>
       </c>
       <c r="F28" t="n">
-        <v>64.02513650064263</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.35062781098692</v>
+        <v>22.22008535074785</v>
       </c>
       <c r="H28" t="n">
-        <v>50.75305335459745</v>
+        <v>83.42182925799429</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>19.9262385313913</v>
       </c>
       <c r="J28" t="n">
-        <v>221.3070235654202</v>
+        <v>242.3483399515918</v>
       </c>
       <c r="K28" t="n">
-        <v>60.26909142516919</v>
+        <v>81.17433141426898</v>
       </c>
       <c r="L28" t="n">
-        <v>159.6053608460639</v>
+        <v>37.46013797361882</v>
       </c>
       <c r="M28" t="n">
-        <v>64.0069551267901</v>
+        <v>3.301683711387515</v>
       </c>
       <c r="N28" t="n">
-        <v>41.91104957826598</v>
+        <v>26.08770767830932</v>
       </c>
       <c r="O28" t="n">
-        <v>35.08289491309604</v>
+        <v>72.9640502729184</v>
       </c>
       <c r="P28" t="n">
-        <v>82.02510697526347</v>
+        <v>55.42656836951591</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.47590609348479</v>
+        <v>63.65536938963021</v>
       </c>
       <c r="R28" t="n">
-        <v>56.62459881043014</v>
+        <v>39.59482114216925</v>
       </c>
       <c r="S28" t="n">
-        <v>27.00346393916965</v>
+        <v>40.87415342069001</v>
       </c>
       <c r="T28" t="n">
-        <v>43.37836345706146</v>
+        <v>48.9937089870701</v>
       </c>
       <c r="U28" t="n">
-        <v>31.26380332236334</v>
+        <v>96.56414394189967</v>
       </c>
       <c r="V28" t="n">
-        <v>19.92440864811846</v>
+        <v>87.61809074805848</v>
       </c>
       <c r="W28" t="n">
-        <v>24.59988486261441</v>
+        <v>53.13909758935004</v>
       </c>
       <c r="X28" t="n">
-        <v>32.11523804909257</v>
+        <v>68.40877652467711</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.63543262214368</v>
+        <v>39.83503881803671</v>
       </c>
       <c r="Z28" t="n">
-        <v>58.28125100105573</v>
+        <v>36.95015129514252</v>
       </c>
       <c r="AA28" t="n">
-        <v>79.90248147061381</v>
+        <v>58.6144005229952</v>
       </c>
       <c r="AB28" t="n">
-        <v>81.07312959175553</v>
+        <v>67.01595936977102</v>
       </c>
       <c r="AC28" t="n">
-        <v>134.0265473140553</v>
+        <v>69.80516586685796</v>
       </c>
       <c r="AD28" t="n">
-        <v>22.84699896811719</v>
+        <v>100.5776206169135</v>
       </c>
       <c r="AE28" t="n">
-        <v>39.16076553012958</v>
+        <v>122.8391427249697</v>
       </c>
       <c r="AF28" t="n">
-        <v>100.3093501232595</v>
+        <v>75.45982473955256</v>
       </c>
       <c r="AG28" t="n">
-        <v>39.2014619900293</v>
+        <v>76.15190442611835</v>
       </c>
       <c r="AH28" t="n">
-        <v>42.00907201621788</v>
+        <v>126.6503851877951</v>
       </c>
       <c r="AI28" t="n">
-        <v>22.19468313892176</v>
+        <v>19.1934640614566</v>
       </c>
       <c r="AJ28" t="n">
-        <v>61.81487422755974</v>
+        <v>53.31600876818774</v>
       </c>
       <c r="AK28" t="n">
-        <v>29.04727364187784</v>
+        <v>79.94844577196986</v>
       </c>
       <c r="AL28" t="n">
-        <v>50.73262326433605</v>
+        <v>26.9928916033338</v>
       </c>
       <c r="AM28" t="n">
-        <v>23.77933873790073</v>
+        <v>28.97450313268309</v>
       </c>
       <c r="AN28" t="n">
-        <v>24.0376616224022</v>
+        <v>30.32915382311839</v>
       </c>
       <c r="AO28" t="n">
-        <v>14.64278252948481</v>
+        <v>19.97337410533029</v>
       </c>
       <c r="AP28" t="n">
-        <v>23.26183717396194</v>
+        <v>22.98166499634399</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16.18092362593009</v>
+        <v>10.81691746039791</v>
       </c>
       <c r="AR28" t="n">
-        <v>20.57931264153247</v>
+        <v>5.11164842873738</v>
       </c>
       <c r="AS28" t="n">
-        <v>14.64610298591718</v>
+        <v>29.96786086180104</v>
       </c>
       <c r="AT28" t="n">
-        <v>6.351982774251757</v>
+        <v>10.97327305072238</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.170679931321388</v>
+        <v>23.93638686146619</v>
       </c>
       <c r="AV28" t="n">
-        <v>6.872449337914277</v>
+        <v>10.38807746665162</v>
       </c>
       <c r="AW28" t="n">
-        <v>9.731622254235289</v>
+        <v>16.2845412273039</v>
       </c>
       <c r="AX28" t="n">
-        <v>10.5278163033392</v>
+        <v>26.08549550182459</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>16.36347163690429</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>15.55621936432872</v>
+        <v>19.78854826953409</v>
       </c>
       <c r="E29" t="n">
-        <v>17.23609220256677</v>
+        <v>3.592597341270598</v>
       </c>
       <c r="F29" t="n">
-        <v>2.984426476342301</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>17.24599160069822</v>
+        <v>0.7463009648842784</v>
       </c>
       <c r="H29" t="n">
-        <v>102.3844406739655</v>
+        <v>38.00002740465925</v>
       </c>
       <c r="I29" t="n">
-        <v>8.295726808725657</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>25.46301038585536</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>29.09112018317493</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>119.5238195880569</v>
+        <v>140.4446986679698</v>
       </c>
       <c r="M29" t="n">
-        <v>91.54276181564782</v>
+        <v>51.69101525402503</v>
       </c>
       <c r="N29" t="n">
-        <v>44.27734661081004</v>
+        <v>27.19845404501313</v>
       </c>
       <c r="O29" t="n">
-        <v>61.09904119180741</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>46.36408573159545</v>
+        <v>68.18780773337065</v>
       </c>
       <c r="Q29" t="n">
-        <v>17.74131249372258</v>
+        <v>5.585726267983375</v>
       </c>
       <c r="R29" t="n">
-        <v>57.23517440887839</v>
+        <v>0.7583033527167231</v>
       </c>
       <c r="S29" t="n">
-        <v>45.30632282473609</v>
+        <v>35.71141959419631</v>
       </c>
       <c r="T29" t="n">
-        <v>39.84315835032715</v>
+        <v>55.87500714060538</v>
       </c>
       <c r="U29" t="n">
-        <v>96.2211043886592</v>
+        <v>17.24588685439351</v>
       </c>
       <c r="V29" t="n">
-        <v>89.41895820698569</v>
+        <v>50.41445540139032</v>
       </c>
       <c r="W29" t="n">
-        <v>115.4200433009447</v>
+        <v>22.2390533520754</v>
       </c>
       <c r="X29" t="n">
-        <v>27.4029522861313</v>
+        <v>92.82568293885961</v>
       </c>
       <c r="Y29" t="n">
-        <v>35.56077772820667</v>
+        <v>14.30017356773271</v>
       </c>
       <c r="Z29" t="n">
-        <v>27.89559006028383</v>
+        <v>55.68127056937475</v>
       </c>
       <c r="AA29" t="n">
-        <v>33.6538017522271</v>
+        <v>33.80804918351051</v>
       </c>
       <c r="AB29" t="n">
-        <v>19.77239513789108</v>
+        <v>62.95239751644104</v>
       </c>
       <c r="AC29" t="n">
-        <v>14.98487160736203</v>
+        <v>52.03180836931506</v>
       </c>
       <c r="AD29" t="n">
-        <v>28.10239272134471</v>
+        <v>24.15524012473129</v>
       </c>
       <c r="AE29" t="n">
-        <v>26.15284332030407</v>
+        <v>43.95848789318734</v>
       </c>
       <c r="AF29" t="n">
-        <v>68.06942835172785</v>
+        <v>11.80977730797134</v>
       </c>
       <c r="AG29" t="n">
-        <v>29.76719281964398</v>
+        <v>23.75922794279518</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.521951481236529</v>
+        <v>23.69311538778475</v>
       </c>
       <c r="AI29" t="n">
-        <v>11.19519477119389</v>
+        <v>24.65262140908854</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.350792806675379</v>
+        <v>52.06606310915797</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.237620638397486</v>
+        <v>25.13929641948544</v>
       </c>
       <c r="AL29" t="n">
-        <v>28.20659527535055</v>
+        <v>49.23463928200568</v>
       </c>
       <c r="AM29" t="n">
-        <v>20.58667391399969</v>
+        <v>34.30915859546099</v>
       </c>
       <c r="AN29" t="n">
-        <v>34.60496058744376</v>
+        <v>0.6259828356063821</v>
       </c>
       <c r="AO29" t="n">
-        <v>23.14550185454538</v>
+        <v>35.17378312905208</v>
       </c>
       <c r="AP29" t="n">
-        <v>40.46474749315218</v>
+        <v>5.697863267716766</v>
       </c>
       <c r="AQ29" t="n">
-        <v>24.81013060966576</v>
+        <v>3.210830567191839</v>
       </c>
       <c r="AR29" t="n">
-        <v>30.05519056512713</v>
+        <v>27.15845927771775</v>
       </c>
       <c r="AS29" t="n">
-        <v>35.33908180801457</v>
+        <v>13.39803288920909</v>
       </c>
       <c r="AT29" t="n">
-        <v>22.96204783611251</v>
+        <v>15.96604710565321</v>
       </c>
       <c r="AU29" t="n">
-        <v>26.54712064053264</v>
+        <v>18.11446469020782</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>1.736668979755267</v>
       </c>
       <c r="AW29" t="n">
-        <v>23.20466865098167</v>
+        <v>33.79684125412872</v>
       </c>
       <c r="AX29" t="n">
-        <v>23.10555243889406</v>
+        <v>13.66074203707189</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>5.080549249605</v>
+        <v>0.856990407645825</v>
       </c>
       <c r="D30" t="n">
-        <v>4.319118595207405</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>9.587215383620387</v>
+        <v>5.694874860100892</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>9.05746151062873</v>
       </c>
       <c r="G30" t="n">
-        <v>5.72086600556795</v>
+        <v>16.39665838853138</v>
       </c>
       <c r="H30" t="n">
-        <v>7.062187236721138</v>
+        <v>6.000963221360437</v>
       </c>
       <c r="I30" t="n">
-        <v>8.653979352928012</v>
+        <v>164.3274303574518</v>
       </c>
       <c r="J30" t="n">
-        <v>11.82188886782771</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>11.91079658539087</v>
+        <v>15.7379196580129</v>
       </c>
       <c r="L30" t="n">
-        <v>4.250608727305353</v>
+        <v>14.70115065156608</v>
       </c>
       <c r="M30" t="n">
-        <v>25.51804100925271</v>
+        <v>25.42616976903111</v>
       </c>
       <c r="N30" t="n">
-        <v>24.44119995848136</v>
+        <v>20.37901751478368</v>
       </c>
       <c r="O30" t="n">
-        <v>38.47860212636296</v>
+        <v>9.589649080045147</v>
       </c>
       <c r="P30" t="n">
-        <v>12.29859629250464</v>
+        <v>12.60025889886103</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.257542814160461</v>
+        <v>19.26810240174057</v>
       </c>
       <c r="R30" t="n">
-        <v>16.52351861417391</v>
+        <v>36.76452606875765</v>
       </c>
       <c r="S30" t="n">
-        <v>27.85420082381179</v>
+        <v>17.33903463908875</v>
       </c>
       <c r="T30" t="n">
-        <v>29.12978217290622</v>
+        <v>12.83173319072829</v>
       </c>
       <c r="U30" t="n">
-        <v>11.88351667200056</v>
+        <v>21.23501726893196</v>
       </c>
       <c r="V30" t="n">
-        <v>8.278575127003457</v>
+        <v>18.24779769919803</v>
       </c>
       <c r="W30" t="n">
-        <v>17.62461302091388</v>
+        <v>13.57352385511066</v>
       </c>
       <c r="X30" t="n">
-        <v>15.91570730665319</v>
+        <v>31.10438549564881</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.381718809195444</v>
+        <v>26.669012897127</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.132154644380536</v>
+        <v>23.48048316750116</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.48290399997657</v>
+        <v>22.81006541720383</v>
       </c>
       <c r="AB30" t="n">
-        <v>15.56195307963348</v>
+        <v>16.97849728388261</v>
       </c>
       <c r="AC30" t="n">
-        <v>25.11123963068288</v>
+        <v>8.765487357989342</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.314342663384104</v>
+        <v>14.60944526437785</v>
       </c>
       <c r="AE30" t="n">
-        <v>20.34359618308558</v>
+        <v>31.94947605751518</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.16152927441094</v>
+        <v>18.99749031169631</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.67918132059804</v>
+        <v>16.26470439679214</v>
       </c>
       <c r="AH30" t="n">
-        <v>15.3485818631093</v>
+        <v>7.713977131007642</v>
       </c>
       <c r="AI30" t="n">
-        <v>6.65019141596761</v>
+        <v>6.831877476238465</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18.02226203510982</v>
+        <v>10.71499413394639</v>
       </c>
       <c r="AK30" t="n">
-        <v>6.229680359635081</v>
+        <v>21.08363061254745</v>
       </c>
       <c r="AL30" t="n">
-        <v>7.230318457726156</v>
+        <v>2.109322733130111</v>
       </c>
       <c r="AM30" t="n">
-        <v>2.763446222558855</v>
+        <v>5.162396246542287</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.785952737162057</v>
+        <v>6.931997344389141</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.520997070646741</v>
+        <v>6.868654461988987</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.498532371783846</v>
+        <v>3.872390866461811</v>
       </c>
       <c r="AQ30" t="n">
-        <v>7.673589790245521</v>
+        <v>1.189030365827272</v>
       </c>
       <c r="AR30" t="n">
-        <v>6.296345802438465</v>
+        <v>3.434898986271943</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.966639727505778</v>
+        <v>1.04928868151176</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.596655232535346</v>
+        <v>1.515948331245577</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.197805773257997</v>
+        <v>3.45936835878353</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.089992725864796</v>
+        <v>4.009911782464362</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.54679197652329</v>
+        <v>3.270034804321225</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.084870899661029</v>
+        <v>0.5858245450297241</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>17.44975126652638</v>
+        <v>7.563760423451887</v>
       </c>
       <c r="D31" t="n">
-        <v>6.744151544035273</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9.795199480583697</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10.10876287099778</v>
+        <v>8.05732723379829</v>
       </c>
       <c r="G31" t="n">
-        <v>31.68878960342699</v>
+        <v>22.94309456689419</v>
       </c>
       <c r="H31" t="n">
-        <v>5.927950423016949</v>
+        <v>22.0068707879628</v>
       </c>
       <c r="I31" t="n">
-        <v>10.15182633144768</v>
+        <v>164.2435302142932</v>
       </c>
       <c r="J31" t="n">
-        <v>37.56039907482955</v>
+        <v>35.47837589213191</v>
       </c>
       <c r="K31" t="n">
-        <v>101.2394771443101</v>
+        <v>4.952135744839833</v>
       </c>
       <c r="L31" t="n">
-        <v>73.40092893604161</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>38.90515008075263</v>
+        <v>40.81494834636179</v>
       </c>
       <c r="N31" t="n">
-        <v>69.14193885792768</v>
+        <v>32.65302556864024</v>
       </c>
       <c r="O31" t="n">
-        <v>32.44183405647911</v>
+        <v>28.89762361052574</v>
       </c>
       <c r="P31" t="n">
-        <v>68.19448017526318</v>
+        <v>46.81678762977829</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.16267893373954</v>
       </c>
       <c r="R31" t="n">
-        <v>18.18012760743808</v>
+        <v>40.83885631737985</v>
       </c>
       <c r="S31" t="n">
-        <v>22.74499269844749</v>
+        <v>34.46409805897897</v>
       </c>
       <c r="T31" t="n">
-        <v>11.55527399680272</v>
+        <v>52.67503720649881</v>
       </c>
       <c r="U31" t="n">
-        <v>74.14723779841475</v>
+        <v>22.20386896596369</v>
       </c>
       <c r="V31" t="n">
-        <v>5.201800622770364</v>
+        <v>24.27797910440937</v>
       </c>
       <c r="W31" t="n">
-        <v>15.20912274186239</v>
+        <v>28.79210021561563</v>
       </c>
       <c r="X31" t="n">
-        <v>1.010943112498549</v>
+        <v>0.2873774143719903</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.5408753618591</v>
+        <v>33.1240870600353</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.36173177856801</v>
+        <v>33.06402032831047</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.935981731639208</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>32.05706108283987</v>
+        <v>16.13947173118063</v>
       </c>
       <c r="AC31" t="n">
-        <v>33.5883262123582</v>
+        <v>10.21910687497004</v>
       </c>
       <c r="AD31" t="n">
-        <v>26.89540081279008</v>
+        <v>9.632245955915501</v>
       </c>
       <c r="AE31" t="n">
-        <v>3.280580681013367</v>
+        <v>31.93714291126524</v>
       </c>
       <c r="AF31" t="n">
-        <v>11.12297826966306</v>
+        <v>6.36351447870137</v>
       </c>
       <c r="AG31" t="n">
-        <v>3.806327894029872</v>
+        <v>24.07972400503112</v>
       </c>
       <c r="AH31" t="n">
-        <v>16.81001233698717</v>
+        <v>39.53242230284307</v>
       </c>
       <c r="AI31" t="n">
-        <v>10.20575288393695</v>
+        <v>6.217225756115081</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.871384516406959</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>4.122981022444426</v>
+        <v>1.538233801335759</v>
       </c>
       <c r="AL31" t="n">
-        <v>10.94895883359878</v>
+        <v>12.13512290295774</v>
       </c>
       <c r="AM31" t="n">
-        <v>7.216693659407291</v>
+        <v>15.49069515129631</v>
       </c>
       <c r="AN31" t="n">
-        <v>25.45717724024573</v>
+        <v>1.112535203244175</v>
       </c>
       <c r="AO31" t="n">
-        <v>17.88490469623273</v>
+        <v>23.49166691703503</v>
       </c>
       <c r="AP31" t="n">
-        <v>3.933498688691945</v>
+        <v>9.003126792178071</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5.008957020942963</v>
+        <v>7.727083926060915</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.10859336378794</v>
+        <v>11.60350460296277</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.09918134636911935</v>
+        <v>4.603072686994162</v>
       </c>
       <c r="AT31" t="n">
-        <v>13.29447564984643</v>
+        <v>6.461689077468782</v>
       </c>
       <c r="AU31" t="n">
-        <v>18.4432753638275</v>
+        <v>8.049171815165636</v>
       </c>
       <c r="AV31" t="n">
-        <v>10.04532245373785</v>
+        <v>5.855673220467954</v>
       </c>
       <c r="AW31" t="n">
-        <v>9.912661103252825</v>
+        <v>7.054346251356026</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.545240343794497</v>
+        <v>7.970420432477896</v>
       </c>
     </row>
   </sheetData>
